--- a/src/com/supplierconnection/xls/TestSuite1.xlsx
+++ b/src/com/supplierconnection/xls/TestSuite1.xlsx
@@ -13,7 +13,7 @@
     <sheet name="StepsData" sheetId="4" r:id="rId4"/>
     <sheet name="datadriven" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -19647,7 +19647,7 @@
   <dimension ref="A1:XFB45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/com/supplierconnection/xls/TestSuite1.xlsx
+++ b/src/com/supplierconnection/xls/TestSuite1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="2055" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="2055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -3938,7 +3938,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="C4" sqref="C4:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3966,7 +3966,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3977,7 +3977,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3988,7 +3988,7 @@
         <v>63</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3998,8 +3998,8 @@
       <c r="B5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>29</v>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4009,8 +4009,8 @@
       <c r="B6" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>29</v>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4020,8 +4020,8 @@
       <c r="B7" t="s">
         <v>139</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
+      <c r="C7" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4031,8 +4031,8 @@
       <c r="B8" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>29</v>
+      <c r="C8" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4042,8 +4042,8 @@
       <c r="B9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4053,8 +4053,8 @@
       <c r="B10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C10" t="s">
-        <v>29</v>
+      <c r="C10" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4064,8 +4064,8 @@
       <c r="B11" t="s">
         <v>306</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
+      <c r="C11" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4075,7 +4075,7 @@
       <c r="B12" t="s">
         <v>332</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4086,8 +4086,8 @@
       <c r="B13" t="s">
         <v>68</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
+      <c r="C13" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4097,8 +4097,8 @@
       <c r="B14" t="s">
         <v>335</v>
       </c>
-      <c r="C14" t="s">
-        <v>29</v>
+      <c r="C14" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4108,8 +4108,8 @@
       <c r="B15" t="s">
         <v>337</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
+      <c r="C15" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4119,8 +4119,8 @@
       <c r="B16" t="s">
         <v>339</v>
       </c>
-      <c r="C16" t="s">
-        <v>29</v>
+      <c r="C16" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4130,8 +4130,8 @@
       <c r="B17" t="s">
         <v>341</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
+      <c r="C17" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4141,8 +4141,8 @@
       <c r="B18" t="s">
         <v>343</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
+      <c r="C18" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4152,8 +4152,8 @@
       <c r="B19" t="s">
         <v>345</v>
       </c>
-      <c r="C19" t="s">
-        <v>29</v>
+      <c r="C19" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4163,8 +4163,8 @@
       <c r="B20" t="s">
         <v>68</v>
       </c>
-      <c r="C20" t="s">
-        <v>29</v>
+      <c r="C20" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4174,8 +4174,8 @@
       <c r="B21" t="s">
         <v>347</v>
       </c>
-      <c r="C21" t="s">
-        <v>29</v>
+      <c r="C21" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4185,8 +4185,8 @@
       <c r="B22" t="s">
         <v>68</v>
       </c>
-      <c r="C22" t="s">
-        <v>29</v>
+      <c r="C22" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4196,8 +4196,8 @@
       <c r="B23" t="s">
         <v>350</v>
       </c>
-      <c r="C23" t="s">
-        <v>29</v>
+      <c r="C23" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4207,8 +4207,8 @@
       <c r="B24" t="s">
         <v>352</v>
       </c>
-      <c r="C24" t="s">
-        <v>29</v>
+      <c r="C24" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4218,8 +4218,8 @@
       <c r="B25" t="s">
         <v>354</v>
       </c>
-      <c r="C25" t="s">
-        <v>29</v>
+      <c r="C25" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4229,8 +4229,8 @@
       <c r="B26" t="s">
         <v>356</v>
       </c>
-      <c r="C26" t="s">
-        <v>29</v>
+      <c r="C26" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -17716,8 +17716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO78"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17772,7 +17772,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -17789,7 +17789,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -17806,7 +17806,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -17865,7 +17865,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
@@ -17885,7 +17885,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -17905,7 +17905,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
@@ -17925,7 +17925,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
@@ -17945,7 +17945,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
@@ -18190,7 +18190,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -18347,7 +18347,7 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
@@ -18361,7 +18361,7 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -19646,7 +19646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>

--- a/src/com/supplierconnection/xls/TestSuite1.xlsx
+++ b/src/com/supplierconnection/xls/TestSuite1.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="2055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="2055" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Steps" sheetId="2" r:id="rId2"/>
     <sheet name="Test Data" sheetId="3" r:id="rId3"/>
-    <sheet name="StepsData" sheetId="4" r:id="rId4"/>
+    <sheet name="Steps Data" sheetId="4" r:id="rId4"/>
     <sheet name="datadriven" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -4239,7 +4239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1094"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
+    <sheetView topLeftCell="A501" workbookViewId="0">
       <selection activeCell="B525" sqref="B525"/>
     </sheetView>
   </sheetViews>
@@ -19643,8 +19643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFB45"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/com/supplierconnection/xls/TestSuite1.xlsx
+++ b/src/com/supplierconnection/xls/TestSuite1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="2055" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="2055"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4890" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4890" uniqueCount="1110">
   <si>
     <t>TCID</t>
   </si>
@@ -3345,12 +3345,6 @@
     <t>Supplier Name(Z-A)</t>
   </si>
   <si>
-    <t>nraghhhhhu.n.andan.1@gmail.com</t>
-  </si>
-  <si>
-    <t>nraghhhhhu.n.a.ndan.1@gmail.com</t>
-  </si>
-  <si>
     <t>630</t>
   </si>
   <si>
@@ -3369,7 +3363,10 @@
     <t>Supplieradmin3</t>
   </si>
   <si>
-    <t>rag.h.unandann6@gmail.com is a Supplier Admin for Step1 check</t>
+    <t>testonbluemix@gmail.com</t>
+  </si>
+  <si>
+    <t>teston.bluemix@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -3558,7 +3555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3635,6 +3632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3940,8 +3938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4127,7 +4125,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="28" t="s">
         <v>334</v>
       </c>
       <c r="B17" t="s">
@@ -4138,7 +4136,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="28" t="s">
         <v>336</v>
       </c>
       <c r="B18" t="s">
@@ -4149,7 +4147,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="28" t="s">
         <v>338</v>
       </c>
       <c r="B19" t="s">
@@ -4256,8 +4254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1109"/>
   <sheetViews>
-    <sheetView topLeftCell="A1000" workbookViewId="0">
-      <selection activeCell="B1019" sqref="B1019"/>
+    <sheetView topLeftCell="A509" workbookViewId="0">
+      <selection activeCell="A523" sqref="A523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19359,8 +19357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L61" workbookViewId="0">
-      <selection activeCell="U66" sqref="U66"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20327,11 +20325,11 @@
       <c r="C53" s="30" t="s">
         <v>882</v>
       </c>
-      <c r="D53" s="37" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E53" s="37" t="s">
-        <v>1102</v>
+      <c r="D53" s="56" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E53" s="56" t="s">
+        <v>1108</v>
       </c>
       <c r="F53" s="30" t="s">
         <v>884</v>
@@ -20485,11 +20483,11 @@
       <c r="C57" s="30" t="s">
         <v>882</v>
       </c>
-      <c r="D57" s="37" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E57" s="37" t="s">
-        <v>1103</v>
+      <c r="D57" s="23" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>1109</v>
       </c>
       <c r="F57" s="30" t="s">
         <v>884</v>
@@ -20507,7 +20505,7 @@
         <v>296</v>
       </c>
       <c r="K57" s="41" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="L57" s="30" t="s">
         <v>889</v>
@@ -20534,13 +20532,13 @@
         <v>904</v>
       </c>
       <c r="T57" t="s">
+        <v>1103</v>
+      </c>
+      <c r="U57" t="s">
+        <v>1104</v>
+      </c>
+      <c r="V57" t="s">
         <v>1105</v>
-      </c>
-      <c r="U57" t="s">
-        <v>1106</v>
-      </c>
-      <c r="V57" t="s">
-        <v>1107</v>
       </c>
       <c r="W57" s="30" t="s">
         <v>16</v>
@@ -20945,7 +20943,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -21002,7 +21000,7 @@
         <v>960</v>
       </c>
       <c r="U66" s="55" t="s">
-        <v>1110</v>
+        <v>961</v>
       </c>
       <c r="V66" t="s">
         <v>962</v>
@@ -21117,7 +21115,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -21325,7 +21323,7 @@
         <v>1099</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
   </sheetData>
@@ -21337,34 +21335,36 @@
     <hyperlink ref="AG62" r:id="rId5"/>
     <hyperlink ref="D53" r:id="rId6"/>
     <hyperlink ref="U49" r:id="rId7"/>
-    <hyperlink ref="D57" r:id="rId8"/>
-    <hyperlink ref="V49" r:id="rId9"/>
-    <hyperlink ref="E66" r:id="rId10" display="mailto:dushyams@in.ibm.com"/>
-    <hyperlink ref="N66" r:id="rId11"/>
-    <hyperlink ref="Q66" r:id="rId12" display="mailto:buyertocheckemail@gmail.com"/>
-    <hyperlink ref="P66" r:id="rId13"/>
-    <hyperlink ref="R66" r:id="rId14"/>
-    <hyperlink ref="U66" r:id="rId15"/>
-    <hyperlink ref="Z66" r:id="rId16"/>
-    <hyperlink ref="Y66" r:id="rId17"/>
-    <hyperlink ref="E70" r:id="rId18"/>
-    <hyperlink ref="H70" r:id="rId19" display="mailto:buyertocheckemail@gmail.com"/>
-    <hyperlink ref="G70" r:id="rId20"/>
-    <hyperlink ref="I70" r:id="rId21"/>
-    <hyperlink ref="L70" r:id="rId22"/>
-    <hyperlink ref="Q70" r:id="rId23"/>
-    <hyperlink ref="P70" r:id="rId24"/>
-    <hyperlink ref="AC66" r:id="rId25" display="mailto:1.2.3.4.5.6.78910superbowl@gmail.com"/>
-    <hyperlink ref="AD66" r:id="rId26"/>
-    <hyperlink ref="AE66" r:id="rId27" display="mailto:200715182605test@gmail.com"/>
-    <hyperlink ref="AF66" r:id="rId28" display="mailto:sup.plier.conne.ction.14@gmail.com"/>
-    <hyperlink ref="AH66" r:id="rId29" display="mailto:8june2015buyer@gmail.com"/>
-    <hyperlink ref="D74" r:id="rId30" display="mailto:1.2.3.4.5.6.78910superbowl@gmail.com"/>
-    <hyperlink ref="E74" r:id="rId31" display="mailto:rft2.9buyer@gmail.com"/>
-    <hyperlink ref="F74" r:id="rId32" display="mailto:200715182605test@gmail.com"/>
-    <hyperlink ref="G74" r:id="rId33" display="mailto:140714165915test@gmail.com"/>
-    <hyperlink ref="H74" r:id="rId34" display="mailto:sup.plier.conne.ction.14@gmail.com"/>
-    <hyperlink ref="I74" r:id="rId35"/>
+    <hyperlink ref="V49" r:id="rId8"/>
+    <hyperlink ref="E66" r:id="rId9" display="mailto:dushyams@in.ibm.com"/>
+    <hyperlink ref="N66" r:id="rId10"/>
+    <hyperlink ref="Q66" r:id="rId11" display="mailto:buyertocheckemail@gmail.com"/>
+    <hyperlink ref="P66" r:id="rId12"/>
+    <hyperlink ref="R66" r:id="rId13"/>
+    <hyperlink ref="U66" r:id="rId14"/>
+    <hyperlink ref="Z66" r:id="rId15"/>
+    <hyperlink ref="Y66" r:id="rId16"/>
+    <hyperlink ref="E70" r:id="rId17"/>
+    <hyperlink ref="H70" r:id="rId18" display="mailto:buyertocheckemail@gmail.com"/>
+    <hyperlink ref="G70" r:id="rId19"/>
+    <hyperlink ref="I70" r:id="rId20"/>
+    <hyperlink ref="L70" r:id="rId21"/>
+    <hyperlink ref="Q70" r:id="rId22"/>
+    <hyperlink ref="P70" r:id="rId23"/>
+    <hyperlink ref="AC66" r:id="rId24" display="mailto:1.2.3.4.5.6.78910superbowl@gmail.com"/>
+    <hyperlink ref="AD66" r:id="rId25"/>
+    <hyperlink ref="AE66" r:id="rId26" display="mailto:200715182605test@gmail.com"/>
+    <hyperlink ref="AF66" r:id="rId27" display="mailto:sup.plier.conne.ction.14@gmail.com"/>
+    <hyperlink ref="AH66" r:id="rId28" display="mailto:8june2015buyer@gmail.com"/>
+    <hyperlink ref="D74" r:id="rId29" display="mailto:1.2.3.4.5.6.78910superbowl@gmail.com"/>
+    <hyperlink ref="E74" r:id="rId30" display="mailto:rft2.9buyer@gmail.com"/>
+    <hyperlink ref="F74" r:id="rId31" display="mailto:200715182605test@gmail.com"/>
+    <hyperlink ref="G74" r:id="rId32" display="mailto:140714165915test@gmail.com"/>
+    <hyperlink ref="H74" r:id="rId33" display="mailto:sup.plier.conne.ction.14@gmail.com"/>
+    <hyperlink ref="I74" r:id="rId34"/>
+    <hyperlink ref="E53" r:id="rId35"/>
+    <hyperlink ref="D57" r:id="rId36"/>
+    <hyperlink ref="E57" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/com/supplierconnection/xls/TestSuite1.xlsx
+++ b/src/com/supplierconnection/xls/TestSuite1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="2055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="2055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4890" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4892" uniqueCount="1110">
   <si>
     <t>TCID</t>
   </si>
@@ -2607,9 +2607,6 @@
     <t>sc_adddone</t>
   </si>
   <si>
-    <t>SC_removeadminaccess</t>
-  </si>
-  <si>
     <t>sc_removingaccesswindow</t>
   </si>
   <si>
@@ -3367,6 +3364,9 @@
   </si>
   <si>
     <t>teston.bluemix@gmail.com</t>
+  </si>
+  <si>
+    <t>SC_removeadminaccess2</t>
   </si>
 </sst>
 </file>
@@ -3938,8 +3938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4202,7 +4202,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="28" t="s">
         <v>345</v>
       </c>
       <c r="B24" t="s">
@@ -4213,7 +4213,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="28" t="s">
         <v>347</v>
       </c>
       <c r="B25" t="s">
@@ -4224,7 +4224,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="18" t="s">
         <v>349</v>
       </c>
       <c r="B26" t="s">
@@ -4236,10 +4236,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B27" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C27" s="54" t="s">
         <v>4</v>
@@ -4252,10 +4252,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1109"/>
+  <dimension ref="A1:G1110"/>
   <sheetViews>
-    <sheetView topLeftCell="A509" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523"/>
+    <sheetView tabSelected="1" topLeftCell="A999" workbookViewId="0">
+      <selection activeCell="B1013" sqref="B1013"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="C93" s="21"/>
       <c r="D93" s="21" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E93" s="30" t="s">
         <v>4</v>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="C94" s="21"/>
       <c r="D94" s="21" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E94" s="21" t="s">
         <v>4</v>
@@ -5537,7 +5537,7 @@
       </c>
       <c r="C95" s="21"/>
       <c r="D95" s="21" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E95" s="21" t="s">
         <v>4</v>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="C96" s="21"/>
       <c r="D96" s="21" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E96" s="21" t="s">
         <v>4</v>
@@ -17923,7 +17923,7 @@
       <c r="E1000" s="30"/>
     </row>
     <row r="1001" spans="1:5">
-      <c r="A1001" s="51" t="s">
+      <c r="A1001" s="31" t="s">
         <v>343</v>
       </c>
       <c r="B1001" s="31" t="s">
@@ -17988,11 +17988,9 @@
         <v>343</v>
       </c>
       <c r="B1006" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1006" s="31" t="s">
-        <v>856</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C1006" s="31"/>
       <c r="D1006" s="31"/>
       <c r="E1006" s="30"/>
     </row>
@@ -18001,14 +17999,12 @@
         <v>343</v>
       </c>
       <c r="B1007" s="31" t="s">
-        <v>226</v>
+        <v>8</v>
       </c>
       <c r="C1007" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="D1007" s="31" t="s">
-        <v>857</v>
-      </c>
+        <v>1109</v>
+      </c>
+      <c r="D1007" s="31"/>
       <c r="E1007" s="30"/>
     </row>
     <row r="1008" spans="1:5">
@@ -18016,12 +18012,14 @@
         <v>343</v>
       </c>
       <c r="B1008" s="31" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="C1008" s="31" t="s">
-        <v>858</v>
-      </c>
-      <c r="D1008" s="31"/>
+        <v>856</v>
+      </c>
+      <c r="D1008" s="31" t="s">
+        <v>856</v>
+      </c>
       <c r="E1008" s="30"/>
     </row>
     <row r="1009" spans="1:5">
@@ -18029,14 +18027,12 @@
         <v>343</v>
       </c>
       <c r="B1009" s="31" t="s">
-        <v>226</v>
+        <v>8</v>
       </c>
       <c r="C1009" s="31" t="s">
-        <v>859</v>
-      </c>
-      <c r="D1009" s="31" t="s">
-        <v>859</v>
-      </c>
+        <v>857</v>
+      </c>
+      <c r="D1009" s="31"/>
       <c r="E1009" s="30"/>
     </row>
     <row r="1010" spans="1:5">
@@ -18044,12 +18040,14 @@
         <v>343</v>
       </c>
       <c r="B1010" s="31" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="C1010" s="31" t="s">
-        <v>860</v>
-      </c>
-      <c r="D1010" s="31"/>
+        <v>858</v>
+      </c>
+      <c r="D1010" s="31" t="s">
+        <v>858</v>
+      </c>
       <c r="E1010" s="30"/>
     </row>
     <row r="1011" spans="1:5">
@@ -18057,22 +18055,22 @@
         <v>343</v>
       </c>
       <c r="B1011" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1011" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="C1011" s="31" t="s">
+        <v>859</v>
+      </c>
       <c r="D1011" s="31"/>
       <c r="E1011" s="30"/>
     </row>
     <row r="1012" spans="1:5">
-      <c r="A1012" s="51" t="s">
+      <c r="A1012" s="31" t="s">
         <v>343</v>
       </c>
       <c r="B1012" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1012" s="52" t="s">
-        <v>861</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C1012" s="31"/>
       <c r="D1012" s="31"/>
       <c r="E1012" s="30"/>
     </row>
@@ -18081,14 +18079,12 @@
         <v>343</v>
       </c>
       <c r="B1013" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1013" s="31" t="s">
-        <v>862</v>
-      </c>
-      <c r="D1013" s="31" t="s">
-        <v>862</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C1013" s="52" t="s">
+        <v>860</v>
+      </c>
+      <c r="D1013" s="31"/>
       <c r="E1013" s="30"/>
     </row>
     <row r="1014" spans="1:5">
@@ -18098,11 +18094,11 @@
       <c r="B1014" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="C1014" s="51" t="s">
-        <v>857</v>
+      <c r="C1014" s="31" t="s">
+        <v>861</v>
       </c>
       <c r="D1014" s="31" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E1014" s="30"/>
     </row>
@@ -18111,63 +18107,65 @@
         <v>343</v>
       </c>
       <c r="B1015" s="31" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="C1015" s="51" t="s">
-        <v>858</v>
-      </c>
-      <c r="D1015" s="31"/>
+        <v>856</v>
+      </c>
+      <c r="D1015" s="31" t="s">
+        <v>862</v>
+      </c>
       <c r="E1015" s="30"/>
     </row>
     <row r="1016" spans="1:5">
-      <c r="A1016" s="31" t="s">
+      <c r="A1016" s="51" t="s">
         <v>343</v>
       </c>
       <c r="B1016" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1016" s="51" t="s">
+        <v>857</v>
+      </c>
+      <c r="D1016" s="31"/>
+      <c r="E1016" s="30"/>
+    </row>
+    <row r="1017" spans="1:5">
+      <c r="A1017" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1017" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="C1016" s="31" t="s">
+      <c r="C1017" s="31" t="s">
+        <v>863</v>
+      </c>
+      <c r="D1017" s="31" t="s">
         <v>864</v>
       </c>
-      <c r="D1016" s="31" t="s">
-        <v>865</v>
-      </c>
-      <c r="E1016" s="30"/>
-    </row>
-    <row r="1017" spans="1:5">
-      <c r="A1017" s="51" t="s">
+      <c r="E1017" s="30"/>
+    </row>
+    <row r="1018" spans="1:5">
+      <c r="A1018" s="51" t="s">
         <v>343</v>
       </c>
-      <c r="B1017" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1017" s="31" t="s">
-        <v>860</v>
-      </c>
-      <c r="D1017" s="31"/>
-      <c r="E1017" s="30"/>
-    </row>
-    <row r="1018" spans="1:5">
-      <c r="A1018" s="31" t="s">
-        <v>343</v>
-      </c>
       <c r="B1018" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1018" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="C1018" s="31" t="s">
+        <v>859</v>
+      </c>
       <c r="D1018" s="31"/>
       <c r="E1018" s="30"/>
     </row>
     <row r="1019" spans="1:5">
-      <c r="A1019" s="51" t="s">
+      <c r="A1019" s="31" t="s">
         <v>343</v>
       </c>
       <c r="B1019" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1019" s="31" t="s">
-        <v>866</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C1019" s="31"/>
       <c r="D1019" s="31"/>
       <c r="E1019" s="30"/>
     </row>
@@ -18179,22 +18177,22 @@
         <v>8</v>
       </c>
       <c r="C1020" s="31" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="D1020" s="31"/>
       <c r="E1020" s="30"/>
     </row>
     <row r="1021" spans="1:5">
-      <c r="A1021" s="53" t="s">
-        <v>345</v>
+      <c r="A1021" s="51" t="s">
+        <v>343</v>
       </c>
       <c r="B1021" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1021" s="31"/>
-      <c r="D1021" s="31" t="s">
-        <v>15</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C1021" s="31" t="s">
+        <v>857</v>
+      </c>
+      <c r="D1021" s="31"/>
       <c r="E1021" s="30"/>
     </row>
     <row r="1022" spans="1:5">
@@ -18202,12 +18200,12 @@
         <v>345</v>
       </c>
       <c r="B1022" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1022" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1022" s="31"/>
+        <v>6</v>
+      </c>
+      <c r="C1022" s="31"/>
+      <c r="D1022" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="E1022" s="30"/>
     </row>
     <row r="1023" spans="1:5">
@@ -18215,36 +18213,36 @@
         <v>345</v>
       </c>
       <c r="B1023" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1023" s="31"/>
-      <c r="D1023" s="31" t="s">
-        <v>40</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C1023" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1023" s="31"/>
       <c r="E1023" s="30"/>
     </row>
     <row r="1024" spans="1:5">
       <c r="A1024" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1024" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1024" s="30" t="s">
-        <v>833</v>
-      </c>
-      <c r="D1024" s="30"/>
+      <c r="B1024" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1024" s="31"/>
+      <c r="D1024" s="31" t="s">
+        <v>40</v>
+      </c>
       <c r="E1024" s="30"/>
     </row>
     <row r="1025" spans="1:5">
       <c r="A1025" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1025" s="31" t="s">
-        <v>475</v>
+      <c r="B1025" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C1025" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D1025" s="30"/>
       <c r="E1025" s="30"/>
@@ -18253,11 +18251,11 @@
       <c r="A1026" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1026" s="30" t="s">
-        <v>8</v>
+      <c r="B1026" s="31" t="s">
+        <v>475</v>
       </c>
       <c r="C1026" s="30" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="D1026" s="30"/>
       <c r="E1026" s="30"/>
@@ -18266,10 +18264,12 @@
       <c r="A1027" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1027" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1027" s="30"/>
+      <c r="B1027" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1027" s="30" t="s">
+        <v>866</v>
+      </c>
       <c r="D1027" s="30"/>
       <c r="E1027" s="30"/>
     </row>
@@ -18277,15 +18277,11 @@
       <c r="A1028" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1028" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1028" s="30" t="s">
-        <v>868</v>
-      </c>
-      <c r="D1028" s="30" t="s">
-        <v>868</v>
-      </c>
+      <c r="B1028" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1028" s="30"/>
+      <c r="D1028" s="30"/>
       <c r="E1028" s="30"/>
     </row>
     <row r="1029" spans="1:5">
@@ -18293,12 +18289,14 @@
         <v>345</v>
       </c>
       <c r="B1029" s="30" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="C1029" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="D1029" s="30"/>
+        <v>867</v>
+      </c>
+      <c r="D1029" s="30" t="s">
+        <v>867</v>
+      </c>
       <c r="E1029" s="30"/>
     </row>
     <row r="1030" spans="1:5">
@@ -18306,28 +18304,26 @@
         <v>345</v>
       </c>
       <c r="B1030" s="30" t="s">
-        <v>226</v>
+        <v>8</v>
       </c>
       <c r="C1030" s="30" t="s">
-        <v>839</v>
-      </c>
-      <c r="D1030" s="30" t="s">
-        <v>839</v>
-      </c>
+        <v>868</v>
+      </c>
+      <c r="D1030" s="30"/>
       <c r="E1030" s="30"/>
     </row>
     <row r="1031" spans="1:5">
       <c r="A1031" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1031" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1031" s="31" t="s">
-        <v>840</v>
+      <c r="B1031" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1031" s="30" t="s">
+        <v>839</v>
       </c>
       <c r="D1031" s="30" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E1031" s="30"/>
     </row>
@@ -18335,13 +18331,15 @@
       <c r="A1032" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1032" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1032" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="D1032" s="30"/>
+      <c r="B1032" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1032" s="31" t="s">
+        <v>840</v>
+      </c>
+      <c r="D1032" s="30" t="s">
+        <v>841</v>
+      </c>
       <c r="E1032" s="30"/>
     </row>
     <row r="1033" spans="1:5">
@@ -18349,28 +18347,26 @@
         <v>345</v>
       </c>
       <c r="B1033" s="30" t="s">
-        <v>226</v>
+        <v>8</v>
       </c>
       <c r="C1033" s="30" t="s">
-        <v>839</v>
-      </c>
-      <c r="D1033" s="30" t="s">
-        <v>839</v>
-      </c>
+        <v>868</v>
+      </c>
+      <c r="D1033" s="30"/>
       <c r="E1033" s="30"/>
     </row>
     <row r="1034" spans="1:5">
       <c r="A1034" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1034" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1034" s="31" t="s">
-        <v>840</v>
-      </c>
-      <c r="D1034" s="31" t="s">
-        <v>842</v>
+      <c r="B1034" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1034" s="30" t="s">
+        <v>839</v>
+      </c>
+      <c r="D1034" s="30" t="s">
+        <v>839</v>
       </c>
       <c r="E1034" s="30"/>
     </row>
@@ -18379,10 +18375,14 @@
         <v>345</v>
       </c>
       <c r="B1035" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1035" s="31"/>
-      <c r="D1035" s="31"/>
+        <v>9</v>
+      </c>
+      <c r="C1035" s="31" t="s">
+        <v>840</v>
+      </c>
+      <c r="D1035" s="31" t="s">
+        <v>842</v>
+      </c>
       <c r="E1035" s="30"/>
     </row>
     <row r="1036" spans="1:5">
@@ -18390,12 +18390,10 @@
         <v>345</v>
       </c>
       <c r="B1036" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1036" s="31" t="s">
-        <v>869</v>
-      </c>
-      <c r="D1036" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="C1036" s="31"/>
+      <c r="D1036" s="31"/>
       <c r="E1036" s="30"/>
     </row>
     <row r="1037" spans="1:5">
@@ -18403,9 +18401,11 @@
         <v>345</v>
       </c>
       <c r="B1037" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1037" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="C1037" s="31" t="s">
+        <v>868</v>
+      </c>
       <c r="D1037" s="30"/>
       <c r="E1037" s="30"/>
     </row>
@@ -18414,11 +18414,9 @@
         <v>345</v>
       </c>
       <c r="B1038" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1038" s="31" t="s">
-        <v>870</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C1038" s="31"/>
       <c r="D1038" s="30"/>
       <c r="E1038" s="30"/>
     </row>
@@ -18427,9 +18425,11 @@
         <v>345</v>
       </c>
       <c r="B1039" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1039" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="C1039" s="31" t="s">
+        <v>869</v>
+      </c>
       <c r="D1039" s="30"/>
       <c r="E1039" s="30"/>
     </row>
@@ -18437,29 +18437,25 @@
       <c r="A1040" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1040" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1040" s="31" t="s">
-        <v>844</v>
-      </c>
-      <c r="D1040" s="30" t="s">
-        <v>844</v>
-      </c>
+      <c r="B1040" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1040" s="31"/>
+      <c r="D1040" s="30"/>
       <c r="E1040" s="30"/>
     </row>
     <row r="1041" spans="1:5">
       <c r="A1041" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1041" s="31" t="s">
-        <v>9</v>
+      <c r="B1041" s="30" t="s">
+        <v>226</v>
       </c>
       <c r="C1041" s="31" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="D1041" s="30" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E1041" s="30"/>
     </row>
@@ -18468,10 +18464,14 @@
         <v>345</v>
       </c>
       <c r="B1042" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1042" s="31"/>
-      <c r="D1042" s="31"/>
+        <v>9</v>
+      </c>
+      <c r="C1042" s="31" t="s">
+        <v>840</v>
+      </c>
+      <c r="D1042" s="30" t="s">
+        <v>845</v>
+      </c>
       <c r="E1042" s="30"/>
     </row>
     <row r="1043" spans="1:5">
@@ -18479,12 +18479,10 @@
         <v>345</v>
       </c>
       <c r="B1043" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1043" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="D1043" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="C1043" s="31"/>
+      <c r="D1043" s="31"/>
       <c r="E1043" s="30"/>
     </row>
     <row r="1044" spans="1:5">
@@ -18492,9 +18490,11 @@
         <v>345</v>
       </c>
       <c r="B1044" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1044" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="C1044" s="30" t="s">
+        <v>868</v>
+      </c>
       <c r="D1044" s="30"/>
       <c r="E1044" s="30"/>
     </row>
@@ -18503,11 +18503,9 @@
         <v>345</v>
       </c>
       <c r="B1045" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1045" s="31" t="s">
-        <v>843</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C1045" s="31"/>
       <c r="D1045" s="30"/>
       <c r="E1045" s="30"/>
     </row>
@@ -18515,29 +18513,27 @@
       <c r="A1046" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1046" s="30" t="s">
-        <v>226</v>
+      <c r="B1046" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="C1046" s="31" t="s">
-        <v>846</v>
-      </c>
-      <c r="D1046" s="30" t="s">
-        <v>846</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="D1046" s="30"/>
       <c r="E1046" s="30"/>
     </row>
     <row r="1047" spans="1:5">
       <c r="A1047" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1047" s="31" t="s">
-        <v>9</v>
+      <c r="B1047" s="30" t="s">
+        <v>226</v>
       </c>
       <c r="C1047" s="31" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="D1047" s="30" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E1047" s="30"/>
     </row>
@@ -18546,10 +18542,14 @@
         <v>345</v>
       </c>
       <c r="B1048" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1048" s="31"/>
-      <c r="D1048" s="31"/>
+        <v>9</v>
+      </c>
+      <c r="C1048" s="31" t="s">
+        <v>840</v>
+      </c>
+      <c r="D1048" s="30" t="s">
+        <v>847</v>
+      </c>
       <c r="E1048" s="30"/>
     </row>
     <row r="1049" spans="1:5">
@@ -18557,12 +18557,10 @@
         <v>345</v>
       </c>
       <c r="B1049" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1049" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="D1049" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="C1049" s="31"/>
+      <c r="D1049" s="31"/>
       <c r="E1049" s="30"/>
     </row>
     <row r="1050" spans="1:5">
@@ -18570,9 +18568,11 @@
         <v>345</v>
       </c>
       <c r="B1050" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1050" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="C1050" s="30" t="s">
+        <v>868</v>
+      </c>
       <c r="D1050" s="30"/>
       <c r="E1050" s="30"/>
     </row>
@@ -18581,11 +18581,9 @@
         <v>345</v>
       </c>
       <c r="B1051" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1051" s="31" t="s">
-        <v>843</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C1051" s="31"/>
       <c r="D1051" s="30"/>
       <c r="E1051" s="30"/>
     </row>
@@ -18593,29 +18591,27 @@
       <c r="A1052" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1052" s="30" t="s">
-        <v>226</v>
+      <c r="B1052" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="C1052" s="31" t="s">
-        <v>848</v>
-      </c>
-      <c r="D1052" s="30" t="s">
-        <v>848</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="D1052" s="30"/>
       <c r="E1052" s="30"/>
     </row>
     <row r="1053" spans="1:5">
       <c r="A1053" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1053" s="31" t="s">
-        <v>9</v>
+      <c r="B1053" s="30" t="s">
+        <v>226</v>
       </c>
       <c r="C1053" s="31" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="D1053" s="30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E1053" s="30"/>
     </row>
@@ -18624,10 +18620,14 @@
         <v>345</v>
       </c>
       <c r="B1054" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1054" s="31"/>
-      <c r="D1054" s="31"/>
+        <v>9</v>
+      </c>
+      <c r="C1054" s="31" t="s">
+        <v>840</v>
+      </c>
+      <c r="D1054" s="30" t="s">
+        <v>849</v>
+      </c>
       <c r="E1054" s="30"/>
     </row>
     <row r="1055" spans="1:5">
@@ -18635,12 +18635,10 @@
         <v>345</v>
       </c>
       <c r="B1055" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1055" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="D1055" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="C1055" s="31"/>
+      <c r="D1055" s="31"/>
       <c r="E1055" s="30"/>
     </row>
     <row r="1056" spans="1:5">
@@ -18648,9 +18646,11 @@
         <v>345</v>
       </c>
       <c r="B1056" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1056" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="C1056" s="30" t="s">
+        <v>868</v>
+      </c>
       <c r="D1056" s="30"/>
       <c r="E1056" s="30"/>
     </row>
@@ -18659,11 +18659,9 @@
         <v>345</v>
       </c>
       <c r="B1057" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1057" s="31" t="s">
-        <v>843</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C1057" s="31"/>
       <c r="D1057" s="30"/>
       <c r="E1057" s="30"/>
     </row>
@@ -18671,29 +18669,27 @@
       <c r="A1058" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1058" s="30" t="s">
-        <v>226</v>
+      <c r="B1058" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="C1058" s="31" t="s">
-        <v>850</v>
-      </c>
-      <c r="D1058" s="31" t="s">
-        <v>850</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="D1058" s="30"/>
       <c r="E1058" s="30"/>
     </row>
     <row r="1059" spans="1:5">
       <c r="A1059" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1059" s="31" t="s">
-        <v>9</v>
+      <c r="B1059" s="30" t="s">
+        <v>226</v>
       </c>
       <c r="C1059" s="31" t="s">
-        <v>840</v>
-      </c>
-      <c r="D1059" s="30" t="s">
-        <v>851</v>
+        <v>850</v>
+      </c>
+      <c r="D1059" s="31" t="s">
+        <v>850</v>
       </c>
       <c r="E1059" s="30"/>
     </row>
@@ -18702,10 +18698,14 @@
         <v>345</v>
       </c>
       <c r="B1060" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1060" s="31"/>
-      <c r="D1060" s="31"/>
+        <v>9</v>
+      </c>
+      <c r="C1060" s="31" t="s">
+        <v>840</v>
+      </c>
+      <c r="D1060" s="30" t="s">
+        <v>851</v>
+      </c>
       <c r="E1060" s="30"/>
     </row>
     <row r="1061" spans="1:5">
@@ -18713,12 +18713,10 @@
         <v>345</v>
       </c>
       <c r="B1061" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1061" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="D1061" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="C1061" s="31"/>
+      <c r="D1061" s="31"/>
       <c r="E1061" s="30"/>
     </row>
     <row r="1062" spans="1:5">
@@ -18726,9 +18724,11 @@
         <v>345</v>
       </c>
       <c r="B1062" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1062" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="C1062" s="30" t="s">
+        <v>868</v>
+      </c>
       <c r="D1062" s="30"/>
       <c r="E1062" s="30"/>
     </row>
@@ -18737,11 +18737,9 @@
         <v>345</v>
       </c>
       <c r="B1063" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1063" s="31" t="s">
-        <v>843</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C1063" s="31"/>
       <c r="D1063" s="30"/>
       <c r="E1063" s="30"/>
     </row>
@@ -18749,29 +18747,27 @@
       <c r="A1064" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1064" s="30" t="s">
-        <v>226</v>
+      <c r="B1064" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="C1064" s="31" t="s">
-        <v>852</v>
-      </c>
-      <c r="D1064" s="31" t="s">
-        <v>852</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="D1064" s="30"/>
       <c r="E1064" s="30"/>
     </row>
     <row r="1065" spans="1:5">
       <c r="A1065" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1065" s="31" t="s">
-        <v>9</v>
+      <c r="B1065" s="30" t="s">
+        <v>226</v>
       </c>
       <c r="C1065" s="31" t="s">
-        <v>840</v>
-      </c>
-      <c r="D1065" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
+      </c>
+      <c r="D1065" s="31" t="s">
+        <v>852</v>
       </c>
       <c r="E1065" s="30"/>
     </row>
@@ -18780,10 +18776,14 @@
         <v>345</v>
       </c>
       <c r="B1066" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1066" s="31"/>
-      <c r="D1066" s="31"/>
+        <v>9</v>
+      </c>
+      <c r="C1066" s="31" t="s">
+        <v>840</v>
+      </c>
+      <c r="D1066" s="30" t="s">
+        <v>853</v>
+      </c>
       <c r="E1066" s="30"/>
     </row>
     <row r="1067" spans="1:5">
@@ -18791,12 +18791,10 @@
         <v>345</v>
       </c>
       <c r="B1067" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1067" s="30" t="s">
-        <v>869</v>
-      </c>
-      <c r="D1067" s="30"/>
+        <v>51</v>
+      </c>
+      <c r="C1067" s="31"/>
+      <c r="D1067" s="31"/>
       <c r="E1067" s="30"/>
     </row>
     <row r="1068" spans="1:5">
@@ -18804,9 +18802,11 @@
         <v>345</v>
       </c>
       <c r="B1068" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1068" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="C1068" s="30" t="s">
+        <v>868</v>
+      </c>
       <c r="D1068" s="30"/>
       <c r="E1068" s="30"/>
     </row>
@@ -18814,29 +18814,25 @@
       <c r="A1069" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1069" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1069" s="31" t="s">
-        <v>854</v>
-      </c>
-      <c r="D1069" s="31" t="s">
-        <v>854</v>
-      </c>
+      <c r="B1069" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1069" s="31"/>
+      <c r="D1069" s="30"/>
       <c r="E1069" s="30"/>
     </row>
     <row r="1070" spans="1:5">
       <c r="A1070" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="B1070" s="31" t="s">
-        <v>9</v>
+      <c r="B1070" s="30" t="s">
+        <v>226</v>
       </c>
       <c r="C1070" s="31" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="D1070" s="31" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="E1070" s="30"/>
     </row>
@@ -18845,10 +18841,14 @@
         <v>345</v>
       </c>
       <c r="B1071" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1071" s="31"/>
-      <c r="D1071" s="31"/>
+        <v>9</v>
+      </c>
+      <c r="C1071" s="31" t="s">
+        <v>840</v>
+      </c>
+      <c r="D1071" s="31" t="s">
+        <v>840</v>
+      </c>
       <c r="E1071" s="30"/>
     </row>
     <row r="1072" spans="1:5">
@@ -18856,11 +18856,9 @@
         <v>345</v>
       </c>
       <c r="B1072" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1072" s="30" t="s">
-        <v>869</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C1072" s="31"/>
       <c r="D1072" s="31"/>
       <c r="E1072" s="30"/>
     </row>
@@ -18869,9 +18867,11 @@
         <v>345</v>
       </c>
       <c r="B1073" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1073" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="C1073" s="30" t="s">
+        <v>868</v>
+      </c>
       <c r="D1073" s="31"/>
       <c r="E1073" s="30"/>
     </row>
@@ -18880,11 +18880,9 @@
         <v>345</v>
       </c>
       <c r="B1074" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1074" s="31" t="s">
-        <v>843</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C1074" s="31"/>
       <c r="D1074" s="31"/>
       <c r="E1074" s="30"/>
     </row>
@@ -18896,7 +18894,7 @@
         <v>8</v>
       </c>
       <c r="C1075" s="31" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="D1075" s="31"/>
       <c r="E1075" s="30"/>
@@ -18908,10 +18906,10 @@
       <c r="B1076" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C1076" s="30" t="s">
-        <v>871</v>
-      </c>
-      <c r="D1076" s="30"/>
+      <c r="C1076" s="31" t="s">
+        <v>855</v>
+      </c>
+      <c r="D1076" s="31"/>
       <c r="E1076" s="30"/>
     </row>
     <row r="1077" spans="1:5">
@@ -18922,22 +18920,22 @@
         <v>8</v>
       </c>
       <c r="C1077" s="30" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="D1077" s="30"/>
       <c r="E1077" s="30"/>
     </row>
     <row r="1078" spans="1:5">
       <c r="A1078" s="53" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B1078" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1078" s="31"/>
-      <c r="D1078" s="31" t="s">
-        <v>15</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C1078" s="30" t="s">
+        <v>857</v>
+      </c>
+      <c r="D1078" s="30"/>
       <c r="E1078" s="30"/>
     </row>
     <row r="1079" spans="1:5">
@@ -18945,12 +18943,12 @@
         <v>347</v>
       </c>
       <c r="B1079" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1079" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1079" s="31"/>
+        <v>6</v>
+      </c>
+      <c r="C1079" s="31"/>
+      <c r="D1079" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="E1079" s="30"/>
     </row>
     <row r="1080" spans="1:5">
@@ -18958,36 +18956,36 @@
         <v>347</v>
       </c>
       <c r="B1080" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1080" s="31"/>
-      <c r="D1080" s="31" t="s">
-        <v>40</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C1080" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1080" s="31"/>
       <c r="E1080" s="30"/>
     </row>
     <row r="1081" spans="1:5">
       <c r="A1081" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="B1081" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1081" s="30" t="s">
-        <v>833</v>
-      </c>
-      <c r="D1081" s="30"/>
+      <c r="B1081" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1081" s="31"/>
+      <c r="D1081" s="31" t="s">
+        <v>40</v>
+      </c>
       <c r="E1081" s="30"/>
     </row>
     <row r="1082" spans="1:5">
       <c r="A1082" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="B1082" s="31" t="s">
-        <v>475</v>
+      <c r="B1082" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C1082" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D1082" s="30"/>
       <c r="E1082" s="30"/>
@@ -18996,39 +18994,37 @@
       <c r="A1083" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="B1083" s="30" t="s">
-        <v>8</v>
+      <c r="B1083" s="31" t="s">
+        <v>475</v>
       </c>
       <c r="C1083" s="30" t="s">
-        <v>836</v>
-      </c>
-      <c r="D1083" s="31"/>
+        <v>834</v>
+      </c>
+      <c r="D1083" s="30"/>
       <c r="E1083" s="30"/>
     </row>
     <row r="1084" spans="1:5">
       <c r="A1084" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="B1084" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1084" s="30"/>
+      <c r="B1084" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1084" s="30" t="s">
+        <v>836</v>
+      </c>
       <c r="D1084" s="31"/>
       <c r="E1084" s="30"/>
     </row>
     <row r="1085" spans="1:5">
-      <c r="A1085" s="31" t="s">
+      <c r="A1085" s="53" t="s">
         <v>347</v>
       </c>
       <c r="B1085" s="31" t="s">
-        <v>872</v>
-      </c>
-      <c r="C1085" s="31" t="s">
-        <v>873</v>
-      </c>
-      <c r="D1085" s="31" t="s">
-        <v>873</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C1085" s="30"/>
+      <c r="D1085" s="31"/>
       <c r="E1085" s="30"/>
     </row>
     <row r="1086" spans="1:5">
@@ -19036,25 +19032,27 @@
         <v>347</v>
       </c>
       <c r="B1086" s="31" t="s">
-        <v>8</v>
+        <v>871</v>
       </c>
       <c r="C1086" s="31" t="s">
-        <v>874</v>
-      </c>
-      <c r="D1086" s="31"/>
+        <v>872</v>
+      </c>
+      <c r="D1086" s="31" t="s">
+        <v>872</v>
+      </c>
       <c r="E1086" s="30"/>
     </row>
     <row r="1087" spans="1:5">
       <c r="A1087" s="31" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B1087" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1087" s="31"/>
-      <c r="D1087" s="31" t="s">
-        <v>15</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C1087" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="D1087" s="31"/>
       <c r="E1087" s="30"/>
     </row>
     <row r="1088" spans="1:5">
@@ -19062,12 +19060,12 @@
         <v>349</v>
       </c>
       <c r="B1088" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1088" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1088" s="31"/>
+        <v>6</v>
+      </c>
+      <c r="C1088" s="31"/>
+      <c r="D1088" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="E1088" s="30"/>
     </row>
     <row r="1089" spans="1:5">
@@ -19075,36 +19073,36 @@
         <v>349</v>
       </c>
       <c r="B1089" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1089" s="31"/>
-      <c r="D1089" s="31" t="s">
-        <v>40</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C1089" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1089" s="31"/>
       <c r="E1089" s="30"/>
     </row>
     <row r="1090" spans="1:5">
       <c r="A1090" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="B1090" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1090" s="30" t="s">
-        <v>833</v>
-      </c>
-      <c r="D1090" s="30"/>
+      <c r="B1090" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1090" s="31"/>
+      <c r="D1090" s="31" t="s">
+        <v>40</v>
+      </c>
       <c r="E1090" s="30"/>
     </row>
     <row r="1091" spans="1:5">
       <c r="A1091" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="B1091" s="31" t="s">
-        <v>475</v>
+      <c r="B1091" s="30" t="s">
+        <v>8</v>
       </c>
       <c r="C1091" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D1091" s="30"/>
       <c r="E1091" s="30"/>
@@ -19113,11 +19111,11 @@
       <c r="A1092" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="B1092" s="30" t="s">
-        <v>875</v>
+      <c r="B1092" s="31" t="s">
+        <v>475</v>
       </c>
       <c r="C1092" s="30" t="s">
-        <v>876</v>
+        <v>834</v>
       </c>
       <c r="D1092" s="30"/>
       <c r="E1092" s="30"/>
@@ -19127,10 +19125,10 @@
         <v>349</v>
       </c>
       <c r="B1093" s="30" t="s">
+        <v>874</v>
+      </c>
+      <c r="C1093" s="30" t="s">
         <v>875</v>
-      </c>
-      <c r="C1093" s="30" t="s">
-        <v>877</v>
       </c>
       <c r="D1093" s="30"/>
       <c r="E1093" s="30"/>
@@ -19140,10 +19138,10 @@
         <v>349</v>
       </c>
       <c r="B1094" s="30" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C1094" s="30" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D1094" s="30"/>
       <c r="E1094" s="30"/>
@@ -19153,10 +19151,10 @@
         <v>349</v>
       </c>
       <c r="B1095" s="30" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C1095" s="30" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D1095" s="30"/>
       <c r="E1095" s="30"/>
@@ -19166,186 +19164,199 @@
         <v>349</v>
       </c>
       <c r="B1096" s="30" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C1096" s="30" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D1096" s="30"/>
       <c r="E1096" s="30"/>
     </row>
     <row r="1097" spans="1:5">
-      <c r="A1097" s="30" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B1097" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1097" s="53"/>
-      <c r="D1097" s="53" t="s">
-        <v>15</v>
-      </c>
+      <c r="A1097" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1097" s="30" t="s">
+        <v>874</v>
+      </c>
+      <c r="C1097" s="30" t="s">
+        <v>879</v>
+      </c>
+      <c r="D1097" s="30"/>
       <c r="E1097" s="30"/>
     </row>
     <row r="1098" spans="1:5">
       <c r="A1098" s="30" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1098" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1098" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1098" s="53"/>
+        <v>6</v>
+      </c>
+      <c r="C1098" s="53"/>
+      <c r="D1098" s="53" t="s">
+        <v>15</v>
+      </c>
       <c r="E1098" s="30"/>
     </row>
     <row r="1099" spans="1:5">
       <c r="A1099" s="30" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1099" s="53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1099" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1099" s="53" t="s">
-        <v>12</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D1099" s="53"/>
       <c r="E1099" s="30"/>
     </row>
     <row r="1100" spans="1:5">
       <c r="A1100" s="30" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1100" s="53" t="s">
         <v>9</v>
       </c>
       <c r="C1100" s="53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1100" s="53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1100" s="30"/>
     </row>
     <row r="1101" spans="1:5">
       <c r="A1101" s="30" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1101" s="53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1101" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1101" s="53"/>
+        <v>18</v>
+      </c>
+      <c r="D1101" s="53" t="s">
+        <v>13</v>
+      </c>
       <c r="E1101" s="30"/>
     </row>
     <row r="1102" spans="1:5">
       <c r="A1102" s="30" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1102" s="53" t="s">
         <v>8</v>
       </c>
       <c r="C1102" s="53" t="s">
-        <v>301</v>
+        <v>19</v>
       </c>
       <c r="D1102" s="53"/>
       <c r="E1102" s="30"/>
     </row>
     <row r="1103" spans="1:5">
       <c r="A1103" s="30" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1103" s="53" t="s">
         <v>8</v>
       </c>
       <c r="C1103" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D1103" s="53"/>
       <c r="E1103" s="30"/>
     </row>
     <row r="1104" spans="1:5">
       <c r="A1104" s="30" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1104" s="53" t="s">
-        <v>308</v>
+        <v>8</v>
       </c>
       <c r="C1104" s="53" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D1104" s="53"/>
       <c r="E1104" s="30"/>
     </row>
     <row r="1105" spans="1:5">
       <c r="A1105" s="30" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1105" s="53" t="s">
-        <v>8</v>
+        <v>308</v>
       </c>
       <c r="C1105" s="53" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D1105" s="53"/>
       <c r="E1105" s="30"/>
     </row>
     <row r="1106" spans="1:5">
       <c r="A1106" s="30" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1106" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1106" s="53"/>
-      <c r="D1106" s="53" t="s">
-        <v>1092</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C1106" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1106" s="53"/>
       <c r="E1106" s="30"/>
     </row>
     <row r="1107" spans="1:5">
       <c r="A1107" s="30" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1107" s="53" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C1107" s="53"/>
       <c r="D1107" s="53" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="E1107" s="30"/>
     </row>
     <row r="1108" spans="1:5">
       <c r="A1108" s="30" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1108" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1108" s="53"/>
+      <c r="D1108" s="53" t="s">
         <v>1095</v>
       </c>
-      <c r="B1108" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1108" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1108" s="30"/>
       <c r="E1108" s="30"/>
     </row>
     <row r="1109" spans="1:5">
       <c r="A1109" s="30" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1109" s="53" t="s">
         <v>8</v>
       </c>
       <c r="C1109" s="53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1109" s="30"/>
       <c r="E1109" s="30"/>
+    </row>
+    <row r="1110" spans="1:5">
+      <c r="A1110" s="30" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1110" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1110" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1110" s="30"/>
+      <c r="E1110" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19357,8 +19368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO82"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="D57" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19373,6 +19384,7 @@
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
     <col min="11" max="11" width="18.140625" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="19" max="19" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="60.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19833,16 +19845,16 @@
         <v>144</v>
       </c>
       <c r="I31" s="24" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J31" s="24" t="s">
         <v>1091</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="K31" s="24" t="s">
         <v>1092</v>
       </c>
-      <c r="K31" s="24" t="s">
+      <c r="L31" s="24" t="s">
         <v>1093</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -19871,16 +19883,16 @@
         <v>147</v>
       </c>
       <c r="I32" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J32" t="s">
         <v>1098</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>1099</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>1100</v>
-      </c>
-      <c r="L32" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -19909,16 +19921,16 @@
         <v>147</v>
       </c>
       <c r="I33" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J33" t="s">
         <v>1098</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>1099</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>1100</v>
-      </c>
-      <c r="L33" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -20158,73 +20170,73 @@
         <v>4</v>
       </c>
       <c r="B49" s="36" t="s">
+        <v>880</v>
+      </c>
+      <c r="C49" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="D49" s="37" t="s">
         <v>882</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="E49" s="37" t="s">
+        <v>882</v>
+      </c>
+      <c r="F49" s="30" t="s">
         <v>883</v>
       </c>
-      <c r="E49" s="37" t="s">
+      <c r="G49" s="30" t="s">
         <v>883</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="H49" s="30" t="s">
         <v>884</v>
       </c>
-      <c r="G49" s="30" t="s">
-        <v>884</v>
-      </c>
-      <c r="H49" s="30" t="s">
+      <c r="I49" s="38" t="s">
         <v>885</v>
       </c>
-      <c r="I49" s="38" t="s">
+      <c r="J49" s="30" t="s">
         <v>886</v>
       </c>
-      <c r="J49" s="30" t="s">
+      <c r="K49" s="30" t="s">
         <v>887</v>
       </c>
-      <c r="K49" s="30" t="s">
+      <c r="L49" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="L49" s="30" t="s">
+      <c r="M49" s="30" t="s">
         <v>889</v>
       </c>
-      <c r="M49" s="30" t="s">
+      <c r="N49" t="s">
         <v>890</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" s="30" t="s">
         <v>891</v>
       </c>
-      <c r="O49" s="30" t="s">
+      <c r="P49" s="30" t="s">
         <v>892</v>
       </c>
-      <c r="P49" s="30" t="s">
+      <c r="Q49" s="30" t="s">
         <v>893</v>
       </c>
-      <c r="Q49" s="30" t="s">
+      <c r="R49" s="30" t="s">
         <v>894</v>
       </c>
-      <c r="R49" s="30" t="s">
+      <c r="S49" s="30" t="s">
         <v>895</v>
       </c>
-      <c r="S49" s="30" t="s">
+      <c r="T49" t="s">
         <v>896</v>
       </c>
-      <c r="T49" t="s">
+      <c r="U49" s="39" t="s">
         <v>897</v>
       </c>
-      <c r="U49" s="39" t="s">
+      <c r="V49" s="39" t="s">
+        <v>897</v>
+      </c>
+      <c r="W49" t="s">
         <v>898</v>
       </c>
-      <c r="V49" s="39" t="s">
-        <v>898</v>
-      </c>
-      <c r="W49" t="s">
+      <c r="X49" s="30" t="s">
         <v>899</v>
-      </c>
-      <c r="X49" s="30" t="s">
-        <v>900</v>
       </c>
       <c r="Y49" s="30" t="s">
         <v>16</v>
@@ -20320,58 +20332,58 @@
         <v>4</v>
       </c>
       <c r="B53" s="36" t="s">
+        <v>880</v>
+      </c>
+      <c r="C53" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="C53" s="30" t="s">
-        <v>882</v>
-      </c>
       <c r="D53" s="56" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E53" s="56" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F53" s="30" t="s">
+        <v>883</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>883</v>
+      </c>
+      <c r="H53" s="30" t="s">
         <v>884</v>
       </c>
-      <c r="G53" s="30" t="s">
-        <v>884</v>
-      </c>
-      <c r="H53" s="30" t="s">
-        <v>885</v>
-      </c>
       <c r="I53" s="38" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>177</v>
       </c>
       <c r="K53" s="30" t="s">
+        <v>887</v>
+      </c>
+      <c r="L53" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="L53" s="30" t="s">
+      <c r="M53" s="30" t="s">
         <v>889</v>
       </c>
-      <c r="M53" s="30" t="s">
+      <c r="N53" t="s">
         <v>890</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" s="30" t="s">
         <v>891</v>
       </c>
-      <c r="O53" s="30" t="s">
+      <c r="P53" s="30" t="s">
         <v>892</v>
       </c>
-      <c r="P53" s="30" t="s">
+      <c r="Q53" s="30" t="s">
         <v>893</v>
-      </c>
-      <c r="Q53" s="30" t="s">
-        <v>894</v>
       </c>
       <c r="R53" s="30" t="s">
         <v>16</v>
       </c>
       <c r="S53" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="54" spans="1:41">
@@ -20452,7 +20464,7 @@
         <v>634</v>
       </c>
       <c r="R56" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="S56" t="s">
         <v>646</v>
@@ -20478,73 +20490,73 @@
         <v>4</v>
       </c>
       <c r="B57" s="36" t="s">
+        <v>880</v>
+      </c>
+      <c r="C57" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="C57" s="30" t="s">
-        <v>882</v>
-      </c>
       <c r="D57" s="23" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F57" s="30" t="s">
+        <v>883</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>883</v>
+      </c>
+      <c r="H57" s="30" t="s">
         <v>884</v>
       </c>
-      <c r="G57" s="30" t="s">
-        <v>884</v>
-      </c>
-      <c r="H57" s="30" t="s">
-        <v>885</v>
-      </c>
       <c r="I57" s="38" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J57" s="41" t="s">
         <v>296</v>
       </c>
       <c r="K57" s="41" t="s">
+        <v>1101</v>
+      </c>
+      <c r="L57" s="30" t="s">
+        <v>888</v>
+      </c>
+      <c r="M57" s="30" t="s">
+        <v>889</v>
+      </c>
+      <c r="N57" t="s">
+        <v>890</v>
+      </c>
+      <c r="O57" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="P57" s="30" t="s">
+        <v>892</v>
+      </c>
+      <c r="Q57" s="30" t="s">
+        <v>893</v>
+      </c>
+      <c r="R57" t="s">
+        <v>902</v>
+      </c>
+      <c r="S57" t="s">
+        <v>903</v>
+      </c>
+      <c r="T57" t="s">
         <v>1102</v>
       </c>
-      <c r="L57" s="30" t="s">
-        <v>889</v>
-      </c>
-      <c r="M57" s="30" t="s">
-        <v>890</v>
-      </c>
-      <c r="N57" t="s">
-        <v>891</v>
-      </c>
-      <c r="O57" s="30" t="s">
-        <v>892</v>
-      </c>
-      <c r="P57" s="30" t="s">
-        <v>893</v>
-      </c>
-      <c r="Q57" s="30" t="s">
-        <v>894</v>
-      </c>
-      <c r="R57" t="s">
-        <v>903</v>
-      </c>
-      <c r="S57" t="s">
-        <v>904</v>
-      </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>1103</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>1104</v>
-      </c>
-      <c r="V57" t="s">
-        <v>1105</v>
       </c>
       <c r="W57" s="30" t="s">
         <v>16</v>
       </c>
       <c r="X57" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="58" spans="1:41">
@@ -20705,124 +20717,124 @@
         <v>4</v>
       </c>
       <c r="B62" s="36" t="s">
+        <v>904</v>
+      </c>
+      <c r="C62" s="30" t="s">
         <v>905</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="D62" s="37" t="s">
         <v>906</v>
       </c>
-      <c r="D62" s="37" t="s">
+      <c r="E62" s="37" t="s">
         <v>907</v>
       </c>
-      <c r="E62" s="37" t="s">
+      <c r="F62" s="30" t="s">
         <v>908</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="G62" s="30" t="s">
         <v>909</v>
       </c>
-      <c r="G62" s="30" t="s">
+      <c r="H62" s="30" t="s">
         <v>910</v>
       </c>
-      <c r="H62" s="30" t="s">
+      <c r="I62" s="42" t="s">
         <v>911</v>
       </c>
-      <c r="I62" s="42" t="s">
+      <c r="J62" s="30" t="s">
         <v>912</v>
       </c>
-      <c r="J62" s="30" t="s">
+      <c r="K62" t="s">
         <v>913</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" s="30" t="s">
         <v>914</v>
       </c>
-      <c r="L62" s="30" t="s">
+      <c r="M62" t="s">
         <v>915</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>916</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" s="30" t="s">
         <v>917</v>
       </c>
-      <c r="O62" s="30" t="s">
+      <c r="P62" s="37" t="s">
         <v>918</v>
       </c>
-      <c r="P62" s="37" t="s">
+      <c r="Q62" s="30" t="s">
         <v>919</v>
       </c>
-      <c r="Q62" s="30" t="s">
+      <c r="R62" s="30" t="s">
         <v>920</v>
       </c>
-      <c r="R62" s="30" t="s">
+      <c r="S62" s="43" t="s">
         <v>921</v>
       </c>
-      <c r="S62" s="43" t="s">
+      <c r="T62" s="43" t="s">
         <v>922</v>
       </c>
-      <c r="T62" s="43" t="s">
+      <c r="U62" s="30" t="s">
+        <v>886</v>
+      </c>
+      <c r="V62" s="30" t="s">
+        <v>888</v>
+      </c>
+      <c r="W62" s="30" t="s">
         <v>923</v>
       </c>
-      <c r="U62" s="30" t="s">
-        <v>887</v>
-      </c>
-      <c r="V62" s="30" t="s">
-        <v>889</v>
-      </c>
-      <c r="W62" s="30" t="s">
+      <c r="X62" s="30" t="s">
         <v>924</v>
       </c>
-      <c r="X62" s="30" t="s">
+      <c r="Y62" t="s">
+        <v>924</v>
+      </c>
+      <c r="Z62" t="s">
         <v>925</v>
       </c>
-      <c r="Y62" t="s">
-        <v>925</v>
-      </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>926</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" s="30" t="s">
         <v>927</v>
       </c>
-      <c r="AB62" s="30" t="s">
+      <c r="AC62" s="44" t="s">
         <v>928</v>
-      </c>
-      <c r="AC62" s="44" t="s">
-        <v>929</v>
       </c>
       <c r="AD62" s="44" t="s">
         <v>616</v>
       </c>
       <c r="AE62" s="44" t="s">
+        <v>929</v>
+      </c>
+      <c r="AF62" s="30" t="s">
         <v>930</v>
       </c>
-      <c r="AF62" s="30" t="s">
+      <c r="AG62" s="39" t="s">
         <v>931</v>
       </c>
-      <c r="AG62" s="39" t="s">
+      <c r="AH62" s="39" t="s">
         <v>932</v>
-      </c>
-      <c r="AH62" s="39" t="s">
-        <v>933</v>
       </c>
       <c r="AI62" s="15" t="s">
         <v>177</v>
       </c>
       <c r="AJ62" s="30" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AK62" s="41" t="s">
         <v>296</v>
       </c>
       <c r="AL62" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AM62" s="30" t="s">
         <v>16</v>
       </c>
       <c r="AN62" s="45" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AO62" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="63" spans="1:41">
@@ -20851,25 +20863,25 @@
         <v>840</v>
       </c>
       <c r="F65" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G65" t="s">
         <v>837</v>
       </c>
       <c r="H65" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I65" s="40" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J65" t="s">
+        <v>861</v>
+      </c>
+      <c r="K65" t="s">
         <v>862</v>
       </c>
-      <c r="K65" t="s">
-        <v>863</v>
-      </c>
       <c r="L65" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M65" t="s">
         <v>839</v>
@@ -20914,28 +20926,28 @@
         <v>851</v>
       </c>
       <c r="AA65" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AB65" s="28" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AC65" s="46" t="s">
+        <v>937</v>
+      </c>
+      <c r="AD65" s="46" t="s">
         <v>938</v>
       </c>
-      <c r="AD65" s="46" t="s">
+      <c r="AE65" s="46" t="s">
         <v>939</v>
       </c>
-      <c r="AE65" s="46" t="s">
+      <c r="AF65" s="46" t="s">
         <v>940</v>
       </c>
-      <c r="AF65" s="46" t="s">
+      <c r="AG65" s="46" t="s">
         <v>941</v>
       </c>
-      <c r="AG65" s="46" t="s">
+      <c r="AH65" s="46" t="s">
         <v>942</v>
-      </c>
-      <c r="AH65" s="46" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="66" spans="1:34">
@@ -20943,103 +20955,103 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
       </c>
       <c r="D66" t="s">
+        <v>943</v>
+      </c>
+      <c r="E66" s="39" t="s">
         <v>944</v>
       </c>
-      <c r="E66" s="39" t="s">
+      <c r="F66" t="s">
         <v>945</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>946</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>947</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" s="40" t="s">
         <v>948</v>
       </c>
-      <c r="I66" s="40" t="s">
+      <c r="J66" t="s">
         <v>949</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>950</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>951</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>952</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" s="39" t="s">
         <v>953</v>
       </c>
-      <c r="N66" s="39" t="s">
+      <c r="O66" t="s">
         <v>954</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" s="39" t="s">
         <v>955</v>
       </c>
-      <c r="P66" s="39" t="s">
+      <c r="Q66" s="39" t="s">
         <v>956</v>
       </c>
-      <c r="Q66" s="39" t="s">
+      <c r="R66" s="39" t="s">
         <v>957</v>
       </c>
-      <c r="R66" s="39" t="s">
+      <c r="S66" t="s">
         <v>958</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>959</v>
       </c>
-      <c r="T66" t="s">
+      <c r="U66" s="55" t="s">
         <v>960</v>
       </c>
-      <c r="U66" s="55" t="s">
+      <c r="V66" t="s">
         <v>961</v>
       </c>
-      <c r="V66" t="s">
+      <c r="W66" t="s">
         <v>962</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>963</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" s="39" t="s">
         <v>964</v>
       </c>
-      <c r="Y66" s="39" t="s">
+      <c r="Z66" s="39" t="s">
         <v>965</v>
       </c>
-      <c r="Z66" s="39" t="s">
+      <c r="AA66" t="s">
         <v>966</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>967</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AC66" s="39" t="s">
         <v>968</v>
       </c>
-      <c r="AC66" s="39" t="s">
+      <c r="AD66" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="AD66" s="39" t="s">
+      <c r="AE66" s="39" t="s">
         <v>970</v>
       </c>
-      <c r="AE66" s="39" t="s">
+      <c r="AF66" s="39" t="s">
         <v>971</v>
       </c>
-      <c r="AF66" s="39" t="s">
+      <c r="AG66" t="s">
         <v>972</v>
       </c>
-      <c r="AG66" t="s">
+      <c r="AH66" s="39" t="s">
         <v>973</v>
-      </c>
-      <c r="AH66" s="39" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="67" spans="1:34">
@@ -21104,7 +21116,7 @@
         <v>851</v>
       </c>
       <c r="R69" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="S69" s="28" t="s">
         <v>840</v>
@@ -21115,58 +21127,58 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
       </c>
       <c r="D70" t="s">
+        <v>952</v>
+      </c>
+      <c r="E70" s="39" t="s">
         <v>953</v>
       </c>
-      <c r="E70" s="39" t="s">
+      <c r="F70" t="s">
         <v>954</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" s="39" t="s">
         <v>955</v>
       </c>
-      <c r="G70" s="39" t="s">
+      <c r="H70" s="39" t="s">
         <v>956</v>
       </c>
-      <c r="H70" s="39" t="s">
+      <c r="I70" s="39" t="s">
         <v>957</v>
       </c>
-      <c r="I70" s="39" t="s">
+      <c r="J70" t="s">
         <v>958</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>959</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" s="39" t="s">
         <v>960</v>
       </c>
-      <c r="L70" s="39" t="s">
+      <c r="M70" t="s">
         <v>961</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>962</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>963</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" s="39" t="s">
         <v>964</v>
       </c>
-      <c r="P70" s="39" t="s">
+      <c r="Q70" s="39" t="s">
         <v>965</v>
       </c>
-      <c r="Q70" s="39" t="s">
+      <c r="R70" t="s">
         <v>966</v>
       </c>
-      <c r="R70" t="s">
-        <v>967</v>
-      </c>
       <c r="S70" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="71" spans="1:34">
@@ -21189,25 +21201,25 @@
         <v>15</v>
       </c>
       <c r="D73" s="46" t="s">
+        <v>937</v>
+      </c>
+      <c r="E73" s="46" t="s">
         <v>938</v>
       </c>
-      <c r="E73" s="46" t="s">
+      <c r="F73" s="46" t="s">
         <v>939</v>
       </c>
-      <c r="F73" s="46" t="s">
+      <c r="G73" s="46" t="s">
         <v>940</v>
       </c>
-      <c r="G73" s="46" t="s">
+      <c r="H73" s="46" t="s">
         <v>941</v>
       </c>
-      <c r="H73" s="46" t="s">
+      <c r="I73" s="46" t="s">
         <v>942</v>
       </c>
-      <c r="I73" s="46" t="s">
-        <v>943</v>
-      </c>
       <c r="J73" s="28" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="74" spans="1:34">
@@ -21215,31 +21227,31 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="39" t="s">
+        <v>968</v>
+      </c>
+      <c r="E74" s="39" t="s">
+        <v>945</v>
+      </c>
+      <c r="F74" s="39" t="s">
+        <v>970</v>
+      </c>
+      <c r="G74" s="39" t="s">
         <v>969</v>
       </c>
-      <c r="E74" s="39" t="s">
-        <v>946</v>
-      </c>
-      <c r="F74" s="39" t="s">
+      <c r="H74" s="39" t="s">
         <v>971</v>
       </c>
-      <c r="G74" s="39" t="s">
-        <v>970</v>
-      </c>
-      <c r="H74" s="39" t="s">
-        <v>972</v>
-      </c>
       <c r="I74" s="39" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J74" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="75" spans="1:34">
@@ -21277,13 +21289,13 @@
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I78" s="40"/>
     </row>
     <row r="80" spans="1:34">
       <c r="A80" s="19" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -21300,10 +21312,10 @@
         <v>13</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -21320,10 +21332,10 @@
         <v>126</v>
       </c>
       <c r="E82" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
@@ -21960,7 +21972,7 @@
     </row>
     <row r="15" spans="1:47" s="3" customFormat="1" ht="28.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AJ15" s="48"/>
     </row>
@@ -22177,19 +22189,19 @@
         <v>461</v>
       </c>
       <c r="AK20" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="AL20" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="AL20" s="1" t="s">
+      <c r="AM20" s="1" t="s">
         <v>980</v>
-      </c>
-      <c r="AM20" s="1" t="s">
-        <v>981</v>
       </c>
       <c r="AN20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AP20" s="1" t="s">
         <v>392</v>
@@ -22201,7 +22213,7 @@
         <v>419</v>
       </c>
       <c r="AS20" s="22" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AT20" s="22" t="s">
         <v>454</v>
@@ -22227,145 +22239,145 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
+        <v>983</v>
+      </c>
+      <c r="D21" t="s">
         <v>984</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>985</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>986</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>987</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>988</v>
-      </c>
-      <c r="H21" t="s">
-        <v>989</v>
       </c>
       <c r="I21" t="s">
         <v>225</v>
       </c>
       <c r="J21" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K21" t="s">
+        <v>989</v>
+      </c>
+      <c r="L21" s="14" t="s">
         <v>990</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="M21" s="14" t="s">
         <v>991</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="N21" t="s">
         <v>992</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>993</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" s="39" t="s">
         <v>994</v>
       </c>
-      <c r="P21" s="39" t="s">
+      <c r="Q21" t="s">
         <v>995</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" s="39" t="s">
         <v>996</v>
       </c>
-      <c r="R21" s="39" t="s">
+      <c r="S21" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="S21" s="15" t="s">
+      <c r="T21" t="s">
         <v>998</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>999</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" s="39" t="s">
         <v>1000</v>
       </c>
-      <c r="V21" s="39" t="s">
+      <c r="W21" s="15" t="s">
         <v>1001</v>
       </c>
-      <c r="W21" s="15" t="s">
+      <c r="X21" s="39" t="s">
         <v>1002</v>
       </c>
-      <c r="X21" s="39" t="s">
+      <c r="Y21" t="s">
         <v>1003</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" s="39" t="s">
         <v>1004</v>
       </c>
-      <c r="Z21" s="39" t="s">
+      <c r="AA21" s="15" t="s">
         <v>1005</v>
-      </c>
-      <c r="AA21" s="15" t="s">
-        <v>1006</v>
       </c>
       <c r="AB21" s="15" t="s">
         <v>109</v>
       </c>
       <c r="AC21" s="39" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AD21" t="s">
         <v>1007</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
+        <v>891</v>
+      </c>
+      <c r="AF21" t="s">
         <v>1008</v>
       </c>
-      <c r="AE21" t="s">
-        <v>892</v>
-      </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
+        <v>890</v>
+      </c>
+      <c r="AH21" t="s">
         <v>1009</v>
       </c>
-      <c r="AG21" t="s">
-        <v>891</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AI21" t="s">
         <v>1010</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AJ21" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="AJ21" s="4" t="s">
+      <c r="AK21" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="AK21" s="4" t="s">
+      <c r="AL21" t="s">
         <v>1013</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AM21" t="s">
         <v>1014</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>1015</v>
       </c>
       <c r="AN21" t="s">
         <v>16</v>
       </c>
       <c r="AO21" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AP21" t="s">
         <v>1016</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AQ21" t="s">
         <v>1017</v>
       </c>
-      <c r="AQ21" t="s">
+      <c r="AR21" t="s">
         <v>1018</v>
       </c>
-      <c r="AR21" t="s">
+      <c r="AS21" t="s">
         <v>1019</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AT21" t="s">
         <v>1020</v>
       </c>
-      <c r="AT21" t="s">
+      <c r="AU21" t="s">
         <v>1021</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>1022</v>
       </c>
       <c r="AV21" t="s">
         <v>16</v>
       </c>
       <c r="AW21" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AX21" t="s">
         <v>267</v>
@@ -22565,130 +22577,130 @@
         <v>42</v>
       </c>
       <c r="C25" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D25" t="s">
         <v>1024</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>1025</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>1026</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>1027</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" s="39" t="s">
         <v>1028</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="I25" t="s">
+        <v>891</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K25" t="s">
+        <v>890</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M25" t="s">
         <v>1029</v>
       </c>
-      <c r="I25" t="s">
-        <v>892</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1009</v>
-      </c>
-      <c r="K25" t="s">
-        <v>891</v>
-      </c>
-      <c r="L25" t="s">
-        <v>1010</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>1030</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>1031</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>1032</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>1033</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>1034</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>1035</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>1036</v>
-      </c>
-      <c r="T25" t="s">
-        <v>1037</v>
       </c>
       <c r="U25" t="s">
         <v>534</v>
       </c>
       <c r="V25" s="39" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="W25" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="X25" t="s">
         <v>540</v>
       </c>
       <c r="Y25" s="39" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Z25" t="s">
         <v>1039</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>1040</v>
       </c>
       <c r="AA25" t="s">
         <v>546</v>
       </c>
       <c r="AB25" s="39" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AC25" t="s">
         <v>1041</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>1042</v>
       </c>
       <c r="AD25" t="s">
         <v>552</v>
       </c>
       <c r="AE25" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AF25">
         <v>100000</v>
       </c>
       <c r="AG25" s="39" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AH25" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AI25" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>890</v>
+      </c>
+      <c r="AK25" t="s">
         <v>1009</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>891</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>1010</v>
       </c>
       <c r="AV25" t="s">
         <v>16</v>
       </c>
       <c r="AW25" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AX25" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AY25" t="s">
         <v>1045</v>
       </c>
-      <c r="AY25" t="s">
+      <c r="AZ25" t="s">
         <v>1046</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="BA25" t="s">
         <v>1047</v>
       </c>
-      <c r="BA25" t="s">
+      <c r="BB25" t="s">
         <v>1048</v>
-      </c>
-      <c r="BB25" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="26" spans="1:56">
@@ -22791,37 +22803,37 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C29" t="s">
         <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E29" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F29" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G29" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H29" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="I29" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J29" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K29" t="s">
         <v>1051</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>1052</v>
-      </c>
-      <c r="L29" t="s">
-        <v>1053</v>
       </c>
       <c r="M29" t="s">
         <v>16</v>
@@ -23013,19 +23025,19 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E33" t="s">
         <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G33" t="s">
         <v>117</v>
       </c>
       <c r="H33" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I33" t="s">
         <v>118</v>
@@ -23040,40 +23052,40 @@
         <v>121</v>
       </c>
       <c r="M33" s="39" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>997</v>
+      </c>
+      <c r="O33" s="15" t="s">
         <v>1057</v>
-      </c>
-      <c r="N33" s="15" t="s">
-        <v>998</v>
-      </c>
-      <c r="O33" s="15" t="s">
-        <v>1058</v>
       </c>
       <c r="P33" t="s">
         <v>161</v>
       </c>
       <c r="Q33" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R33" t="s">
         <v>1059</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>1060</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>1061</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>1062</v>
-      </c>
-      <c r="U33" t="s">
-        <v>1063</v>
       </c>
       <c r="V33" t="s">
         <v>161</v>
       </c>
       <c r="W33" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="X33" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="Y33">
         <v>11</v>
@@ -23236,16 +23248,16 @@
         <v>161</v>
       </c>
       <c r="E37" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G37" s="39" t="s">
         <v>1065</v>
       </c>
-      <c r="F37" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G37" s="39" t="s">
-        <v>1066</v>
-      </c>
       <c r="H37" s="39" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="I37">
         <v>22</v>
@@ -23284,7 +23296,7 @@
         <v>44</v>
       </c>
       <c r="U37" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AJ37" s="4"/>
     </row>
@@ -23444,82 +23456,82 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E41" t="s">
         <v>1068</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>1069</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>1070</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>1071</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>1072</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>1073</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>1074</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>1075</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>1076</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>1077</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>1078</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>1079</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" s="15" t="s">
+        <v>997</v>
+      </c>
+      <c r="R41" t="s">
         <v>1080</v>
       </c>
-      <c r="Q41" s="15" t="s">
-        <v>998</v>
-      </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>1081</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>1082</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>1083</v>
-      </c>
-      <c r="U41" t="s">
-        <v>1084</v>
       </c>
       <c r="V41" t="s">
         <v>267</v>
       </c>
       <c r="W41" t="s">
+        <v>1084</v>
+      </c>
+      <c r="X41" t="s">
         <v>1085</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>1086</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>1087</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>1088</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>1089</v>
       </c>
-      <c r="AB41" t="s">
-        <v>1090</v>
-      </c>
       <c r="AC41" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AD41" t="s">
         <v>162</v>

--- a/src/com/supplierconnection/xls/TestSuite1.xlsx
+++ b/src/com/supplierconnection/xls/TestSuite1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="2055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="2055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4890" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5602" uniqueCount="1271">
   <si>
     <t>TCID</t>
   </si>
@@ -3368,6 +3368,489 @@
   <si>
     <t>teston.bluemix@gmail.com</t>
   </si>
+  <si>
+    <t>SupplierAcademy</t>
+  </si>
+  <si>
+    <t>WelcomeTab</t>
+  </si>
+  <si>
+    <t>verifyPage</t>
+  </si>
+  <si>
+    <t>C:/Users/IBM_ADMIN/Eclipse/workspace/Supplier Connection/Images/SupplierAcademy.png</t>
+  </si>
+  <si>
+    <t>Eligibility</t>
+  </si>
+  <si>
+    <t>https://100x02.lexington.ibm.com/SupplierConnection/eligibility.html</t>
+  </si>
+  <si>
+    <t>C:/Users/IBM_ADMIN/Eclipse/workspace/Supplier Connection/Images/Eligibility.png</t>
+  </si>
+  <si>
+    <t>Step5</t>
+  </si>
+  <si>
+    <t>supplierbutton_xpath</t>
+  </si>
+  <si>
+    <t>companyprofile_xpath</t>
+  </si>
+  <si>
+    <t>step5_xpath</t>
+  </si>
+  <si>
+    <t>isoradio1</t>
+  </si>
+  <si>
+    <t>isoradio2</t>
+  </si>
+  <si>
+    <t>cleartext</t>
+  </si>
+  <si>
+    <t>isodate</t>
+  </si>
+  <si>
+    <t>isomonth</t>
+  </si>
+  <si>
+    <t>isoyear</t>
+  </si>
+  <si>
+    <t>env_radio</t>
+  </si>
+  <si>
+    <t>env_radio1</t>
+  </si>
+  <si>
+    <t>env_radio2</t>
+  </si>
+  <si>
+    <t>env_radio3</t>
+  </si>
+  <si>
+    <t>env_radio4</t>
+  </si>
+  <si>
+    <t>env_radio5</t>
+  </si>
+  <si>
+    <t>env_radio6</t>
+  </si>
+  <si>
+    <t>env_radio7</t>
+  </si>
+  <si>
+    <t>env_radio8</t>
+  </si>
+  <si>
+    <t>env_radio9</t>
+  </si>
+  <si>
+    <t>env_radio10</t>
+  </si>
+  <si>
+    <t>env_date</t>
+  </si>
+  <si>
+    <t>env_month</t>
+  </si>
+  <si>
+    <t>env_year</t>
+  </si>
+  <si>
+    <t>env_radio11</t>
+  </si>
+  <si>
+    <t>env_radio12</t>
+  </si>
+  <si>
+    <t>env_radio13</t>
+  </si>
+  <si>
+    <t>plan_certd</t>
+  </si>
+  <si>
+    <t>plan_certm</t>
+  </si>
+  <si>
+    <t>plan_certy</t>
+  </si>
+  <si>
+    <t>env_radio14</t>
+  </si>
+  <si>
+    <t>env_radio15</t>
+  </si>
+  <si>
+    <t>env_radio16</t>
+  </si>
+  <si>
+    <t>step5_text5</t>
+  </si>
+  <si>
+    <t>savcont5</t>
+  </si>
+  <si>
+    <t>step5val1</t>
+  </si>
+  <si>
+    <t>step5val2</t>
+  </si>
+  <si>
+    <t>nenv_date</t>
+  </si>
+  <si>
+    <t>nenv_month</t>
+  </si>
+  <si>
+    <t>nenv_year</t>
+  </si>
+  <si>
+    <t>nplan_certd</t>
+  </si>
+  <si>
+    <t>nplan_certm</t>
+  </si>
+  <si>
+    <t>nplan_certy</t>
+  </si>
+  <si>
+    <t>nisodate</t>
+  </si>
+  <si>
+    <t>nisomonth</t>
+  </si>
+  <si>
+    <t>nisoyear</t>
+  </si>
+  <si>
+    <t>step5_text</t>
+  </si>
+  <si>
+    <t>step5_text1</t>
+  </si>
+  <si>
+    <t>step5val4</t>
+  </si>
+  <si>
+    <t>step5val5</t>
+  </si>
+  <si>
+    <t>step5_text2</t>
+  </si>
+  <si>
+    <t>step5_text3</t>
+  </si>
+  <si>
+    <t>step5_text4</t>
+  </si>
+  <si>
+    <t>NewFeature</t>
+  </si>
+  <si>
+    <t>newfeature</t>
+  </si>
+  <si>
+    <t>newfeature2</t>
+  </si>
+  <si>
+    <t>Announcements</t>
+  </si>
+  <si>
+    <t>announcements</t>
+  </si>
+  <si>
+    <t>announcements1</t>
+  </si>
+  <si>
+    <t>announcements2</t>
+  </si>
+  <si>
+    <t>Showyoursupport</t>
+  </si>
+  <si>
+    <t>showyoursupport</t>
+  </si>
+  <si>
+    <t>downloadbadge</t>
+  </si>
+  <si>
+    <t>badgesize</t>
+  </si>
+  <si>
+    <t>showyoursupport2</t>
+  </si>
+  <si>
+    <t>Step2</t>
+  </si>
+  <si>
+    <t>step2_xpath</t>
+  </si>
+  <si>
+    <t>waits</t>
+  </si>
+  <si>
+    <t>step2_val</t>
+  </si>
+  <si>
+    <t>step2_day</t>
+  </si>
+  <si>
+    <t>step2_year</t>
+  </si>
+  <si>
+    <t>selectdropdown</t>
+  </si>
+  <si>
+    <t>step2_drop</t>
+  </si>
+  <si>
+    <t>step2_day1</t>
+  </si>
+  <si>
+    <t>step2_year1</t>
+  </si>
+  <si>
+    <t>step2_text</t>
+  </si>
+  <si>
+    <t>step2_text2</t>
+  </si>
+  <si>
+    <t>checkboxset</t>
+  </si>
+  <si>
+    <t>step2_check1</t>
+  </si>
+  <si>
+    <t>step2_check2</t>
+  </si>
+  <si>
+    <t>step2_check3</t>
+  </si>
+  <si>
+    <t>step2_textbox</t>
+  </si>
+  <si>
+    <t>step2_textbox1</t>
+  </si>
+  <si>
+    <t>step2_textbox2</t>
+  </si>
+  <si>
+    <t>step2_textbox3</t>
+  </si>
+  <si>
+    <t>step2_textbox4</t>
+  </si>
+  <si>
+    <t>step2_textbox5</t>
+  </si>
+  <si>
+    <t>step2_textbox6</t>
+  </si>
+  <si>
+    <t>step2_textbox7</t>
+  </si>
+  <si>
+    <t>step2_textbox8</t>
+  </si>
+  <si>
+    <t>step2_textbox9</t>
+  </si>
+  <si>
+    <t>step2_textbox10</t>
+  </si>
+  <si>
+    <t>step2_textbox11</t>
+  </si>
+  <si>
+    <t>step2_radio</t>
+  </si>
+  <si>
+    <t>step2_radio2</t>
+  </si>
+  <si>
+    <t>step2_submit</t>
+  </si>
+  <si>
+    <t>step2_val1</t>
+  </si>
+  <si>
+    <t>step2_val2</t>
+  </si>
+  <si>
+    <t>step2_val3</t>
+  </si>
+  <si>
+    <t>step2_val4</t>
+  </si>
+  <si>
+    <t>step2_val5</t>
+  </si>
+  <si>
+    <t>step2_val6</t>
+  </si>
+  <si>
+    <t>step2_val7</t>
+  </si>
+  <si>
+    <t>step2_val8</t>
+  </si>
+  <si>
+    <t>step2_val9</t>
+  </si>
+  <si>
+    <t>step2_val10</t>
+  </si>
+  <si>
+    <t>step2_val11</t>
+  </si>
+  <si>
+    <t>step2_val12</t>
+  </si>
+  <si>
+    <t>step2_val13</t>
+  </si>
+  <si>
+    <t>step2_val14</t>
+  </si>
+  <si>
+    <t>step2_val15</t>
+  </si>
+  <si>
+    <t>step2_val16</t>
+  </si>
+  <si>
+    <t>step2_val17</t>
+  </si>
+  <si>
+    <t>step2_val18</t>
+  </si>
+  <si>
+    <t>step2_mon</t>
+  </si>
+  <si>
+    <t>step2_mon1</t>
+  </si>
+  <si>
+    <t>step2_incorp</t>
+  </si>
+  <si>
+    <t>step2_liab</t>
+  </si>
+  <si>
+    <t>step2_exch</t>
+  </si>
+  <si>
+    <t>step2_reg</t>
+  </si>
+  <si>
+    <t>step2_temp</t>
+  </si>
+  <si>
+    <t>nstep2_check1</t>
+  </si>
+  <si>
+    <t>nstep2_check2</t>
+  </si>
+  <si>
+    <t>nstep2_check3</t>
+  </si>
+  <si>
+    <t>step2_industcheck</t>
+  </si>
+  <si>
+    <t>step2_naics</t>
+  </si>
+  <si>
+    <t>step2_area</t>
+  </si>
+  <si>
+    <t>step2_inter</t>
+  </si>
+  <si>
+    <t>step2_legalrad</t>
+  </si>
+  <si>
+    <t>step2_contr</t>
+  </si>
+  <si>
+    <t>step2_stat</t>
+  </si>
+  <si>
+    <t>step2_contr2</t>
+  </si>
+  <si>
+    <t>step2_stat2</t>
+  </si>
+  <si>
+    <t>step2_contr3</t>
+  </si>
+  <si>
+    <t>step2_stat3</t>
+  </si>
+  <si>
+    <t>step2_cage</t>
+  </si>
+  <si>
+    <t>step2_cage1</t>
+  </si>
+  <si>
+    <t>step2_teaming</t>
+  </si>
+  <si>
+    <t>step2_fedrad</t>
+  </si>
+  <si>
+    <t>step2_secur</t>
+  </si>
+  <si>
+    <t>step2_pers</t>
+  </si>
+  <si>
+    <t>step2_save</t>
+  </si>
+  <si>
+    <t>Confirmation</t>
+  </si>
+  <si>
+    <t>conf_text</t>
+  </si>
+  <si>
+    <t>conf_text1</t>
+  </si>
+  <si>
+    <t>conf_head</t>
+  </si>
+  <si>
+    <t>InviteAsupplier</t>
+  </si>
+  <si>
+    <t>invitesupplierlink</t>
+  </si>
+  <si>
+    <t>invs_submit</t>
+  </si>
+  <si>
+    <t>invs_val</t>
+  </si>
+  <si>
+    <t>invs_review</t>
+  </si>
+  <si>
+    <t>invs_text</t>
+  </si>
+  <si>
+    <t>Supp_Events</t>
+  </si>
+  <si>
+    <t>supp_eventhead</t>
+  </si>
 </sst>
 </file>
 
@@ -3376,7 +3859,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3410,6 +3893,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3494,7 +3983,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3550,12 +4039,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3633,21 +4136,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Excel Built-in Normal" xfId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3938,7 +4443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -4252,10 +4757,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1109"/>
+  <dimension ref="A1:G1317"/>
   <sheetViews>
-    <sheetView topLeftCell="A509" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523"/>
+    <sheetView tabSelected="1" topLeftCell="A1109" workbookViewId="0">
+      <selection activeCell="A1111" sqref="A1111:D1317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19346,6 +19851,2672 @@
       </c>
       <c r="D1109" s="30"/>
       <c r="E1109" s="30"/>
+    </row>
+    <row r="1111" spans="1:5">
+      <c r="A1111" s="58" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1111" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1111" s="58"/>
+      <c r="D1111" s="58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5">
+      <c r="A1112" s="58" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1112" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1112" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1112" s="58"/>
+    </row>
+    <row r="1113" spans="1:5">
+      <c r="A1113" s="58" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1113" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1113" s="58" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D1113" s="58"/>
+    </row>
+    <row r="1114" spans="1:5">
+      <c r="A1114" s="58" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1114" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1114" s="58" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D1114" s="58"/>
+    </row>
+    <row r="1115" spans="1:5">
+      <c r="A1115" s="58" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1115" s="58" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C1115" s="59" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D1115" s="58"/>
+    </row>
+    <row r="1116" spans="1:5">
+      <c r="A1116" s="58" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1116" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1116" s="58"/>
+      <c r="D1116" s="58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5">
+      <c r="A1117" s="58" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1117" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1117" s="58" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1117" s="58"/>
+    </row>
+    <row r="1118" spans="1:5">
+      <c r="A1118" s="58" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1118" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1118" s="58" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D1118" s="58"/>
+    </row>
+    <row r="1119" spans="1:5">
+      <c r="A1119" s="58" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1119" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1119" s="58" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D1119" s="58"/>
+    </row>
+    <row r="1120" spans="1:5">
+      <c r="A1120" s="58" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1120" s="58" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C1120" s="58" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D1120" s="58"/>
+    </row>
+    <row r="1121" spans="1:4">
+      <c r="A1121" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1121" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1121" s="57"/>
+      <c r="D1121" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4">
+      <c r="A1122" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1122" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1122" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1122" s="57"/>
+    </row>
+    <row r="1123" spans="1:4">
+      <c r="A1123" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1123" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1123" s="57"/>
+      <c r="D1123" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4">
+      <c r="A1124" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1124" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1124" s="57" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D1124" s="57"/>
+    </row>
+    <row r="1125" spans="1:4">
+      <c r="A1125" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1125" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1125" s="57" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D1125" s="57"/>
+    </row>
+    <row r="1126" spans="1:4">
+      <c r="A1126" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1126" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1126" s="57" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1126" s="57"/>
+    </row>
+    <row r="1127" spans="1:4">
+      <c r="A1127" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1127" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1127" s="57" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D1127" s="57"/>
+    </row>
+    <row r="1128" spans="1:4">
+      <c r="A1128" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1128" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1128" s="57" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D1128" s="57"/>
+    </row>
+    <row r="1129" spans="1:4">
+      <c r="A1129" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1129" s="62" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1129" s="57" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D1129" s="57"/>
+    </row>
+    <row r="1130" spans="1:4">
+      <c r="A1130" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1130" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1130" s="57" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D1130" s="57" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4">
+      <c r="A1131" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1131" s="62" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1131" s="57" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D1131" s="57"/>
+    </row>
+    <row r="1132" spans="1:4">
+      <c r="A1132" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1132" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1132" s="57" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D1132" s="57" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4">
+      <c r="A1133" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1133" s="62" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1133" s="57" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D1133" s="57"/>
+    </row>
+    <row r="1134" spans="1:4">
+      <c r="A1134" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1134" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1134" s="57" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D1134" s="57" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4">
+      <c r="A1135" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1135" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1135" s="57" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D1135" s="57"/>
+    </row>
+    <row r="1136" spans="1:4">
+      <c r="A1136" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1136" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1136" s="57" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D1136" s="57"/>
+    </row>
+    <row r="1137" spans="1:4">
+      <c r="A1137" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1137" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1137" s="57" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D1137" s="57"/>
+    </row>
+    <row r="1138" spans="1:4">
+      <c r="A1138" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1138" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1138" s="57" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D1138" s="57"/>
+    </row>
+    <row r="1139" spans="1:4">
+      <c r="A1139" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1139" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1139" s="57" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D1139" s="57"/>
+    </row>
+    <row r="1140" spans="1:4">
+      <c r="A1140" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1140" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1140" s="57" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D1140" s="57"/>
+    </row>
+    <row r="1141" spans="1:4">
+      <c r="A1141" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1141" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1141" s="57" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D1141" s="57"/>
+    </row>
+    <row r="1142" spans="1:4">
+      <c r="A1142" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1142" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1142" s="57" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D1142" s="57"/>
+    </row>
+    <row r="1143" spans="1:4">
+      <c r="A1143" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1143" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1143" s="57" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D1143" s="57"/>
+    </row>
+    <row r="1144" spans="1:4">
+      <c r="A1144" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1144" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1144" s="57" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D1144" s="57"/>
+    </row>
+    <row r="1145" spans="1:4">
+      <c r="A1145" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1145" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1145" s="57" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D1145" s="57"/>
+    </row>
+    <row r="1146" spans="1:4">
+      <c r="A1146" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1146" s="62" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1146" s="57" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D1146" s="57"/>
+    </row>
+    <row r="1147" spans="1:4">
+      <c r="A1147" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1147" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1147" s="57" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D1147" s="57" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4">
+      <c r="A1148" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1148" s="62" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1148" s="57" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D1148" s="57"/>
+    </row>
+    <row r="1149" spans="1:4">
+      <c r="A1149" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1149" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1149" s="57" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D1149" s="57" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4">
+      <c r="A1150" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1150" s="62" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1150" s="57" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1150" s="57"/>
+    </row>
+    <row r="1151" spans="1:4">
+      <c r="A1151" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1151" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1151" s="57" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1151" s="57" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4">
+      <c r="A1152" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1152" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1152" s="57" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D1152" s="57"/>
+    </row>
+    <row r="1153" spans="1:4">
+      <c r="A1153" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1153" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1153" s="57" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D1153" s="57"/>
+    </row>
+    <row r="1154" spans="1:4">
+      <c r="A1154" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1154" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1154" s="57" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D1154" s="57"/>
+    </row>
+    <row r="1155" spans="1:4">
+      <c r="A1155" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1155" s="62" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1155" s="57" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D1155" s="57"/>
+    </row>
+    <row r="1156" spans="1:4">
+      <c r="A1156" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1156" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1156" s="57" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D1156" s="57" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4">
+      <c r="A1157" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1157" s="62" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1157" s="57" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D1157" s="57"/>
+    </row>
+    <row r="1158" spans="1:4">
+      <c r="A1158" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1158" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1158" s="57" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D1158" s="57" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4">
+      <c r="A1159" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1159" s="62" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1159" s="57" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D1159" s="57"/>
+    </row>
+    <row r="1160" spans="1:4">
+      <c r="A1160" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1160" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1160" s="57" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D1160" s="57" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4">
+      <c r="A1161" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1161" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1161" s="57" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D1161" s="57"/>
+    </row>
+    <row r="1162" spans="1:4">
+      <c r="A1162" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1162" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1162" s="57" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D1162" s="57"/>
+    </row>
+    <row r="1163" spans="1:4">
+      <c r="A1163" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1163" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1163" s="57" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D1163" s="57"/>
+    </row>
+    <row r="1164" spans="1:4">
+      <c r="A1164" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1164" s="62" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1164" s="57" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D1164" s="57"/>
+    </row>
+    <row r="1165" spans="1:4">
+      <c r="A1165" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1165" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1165" s="57" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D1165" s="57"/>
+    </row>
+    <row r="1166" spans="1:4">
+      <c r="A1166" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1166" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1166" s="57" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D1166" s="57" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4">
+      <c r="A1167" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1167" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1167" s="57" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D1167" s="57" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4">
+      <c r="A1168" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1168" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1168" s="57" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D1168" s="57" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4">
+      <c r="A1169" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1169" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1169" s="57" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D1169" s="57" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4">
+      <c r="A1170" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1170" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1170" s="57" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1170" s="57" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4">
+      <c r="A1171" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1171" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1171" s="57" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D1171" s="57" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4">
+      <c r="A1172" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1172" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1172" s="57" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D1172" s="57" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4">
+      <c r="A1173" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1173" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1173" s="57" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D1173" s="57" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4">
+      <c r="A1174" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1174" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1174" s="57" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D1174" s="57" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4">
+      <c r="A1175" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1175" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1175" s="57" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D1175" s="57" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4">
+      <c r="A1176" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1176" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1176" s="57" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D1176" s="57" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4">
+      <c r="A1177" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1177" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1177" s="57" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D1177" s="57" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4">
+      <c r="A1178" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1178" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1178" s="57" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D1178" s="57" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4">
+      <c r="A1179" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1179" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1179" s="57" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D1179" s="57" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4">
+      <c r="A1180" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1180" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1180" s="57" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D1180" s="57" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4">
+      <c r="A1181" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1181" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1181" s="57" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D1181" s="57" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4">
+      <c r="A1182" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1182" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1182" s="57" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D1182" s="57" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4">
+      <c r="A1183" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1183" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1183" s="57" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D1183" s="57" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4">
+      <c r="A1184" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1184" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1184" s="57" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D1184" s="57" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4">
+      <c r="A1185" s="60" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B1185" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1185" s="57" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D1185" s="57"/>
+    </row>
+    <row r="1186" spans="1:4">
+      <c r="A1186" s="60" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1186" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1186" s="57"/>
+      <c r="D1186" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4">
+      <c r="A1187" s="60" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1187" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1187" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1187" s="57"/>
+    </row>
+    <row r="1188" spans="1:4">
+      <c r="A1188" s="60" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1188" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1188" s="57"/>
+      <c r="D1188" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4">
+      <c r="A1189" s="60" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1189" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1189" s="57" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D1189" s="57" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4">
+      <c r="A1190" s="60" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1190" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1190" s="57" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D1190" s="57" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4">
+      <c r="A1191" s="57" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1191" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1191" s="57"/>
+      <c r="D1191" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4">
+      <c r="A1192" s="57" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1192" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1192" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1192" s="57"/>
+    </row>
+    <row r="1193" spans="1:4">
+      <c r="A1193" s="57" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1193" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1193" s="57"/>
+      <c r="D1193" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4">
+      <c r="A1194" s="57" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1194" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1194" s="57" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D1194" s="57" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4">
+      <c r="A1195" s="57" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1195" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1195" s="57" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D1195" s="57" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4">
+      <c r="A1196" s="57"/>
+      <c r="B1196" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1196" s="57" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D1196" s="57" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4">
+      <c r="A1197" s="57" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1197" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1197" s="57"/>
+      <c r="D1197" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4">
+      <c r="A1198" s="57" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1198" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1198" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1198" s="57"/>
+    </row>
+    <row r="1199" spans="1:4">
+      <c r="A1199" s="57" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1199" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1199" s="57"/>
+      <c r="D1199" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4">
+      <c r="A1200" s="57" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1200" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1200" s="57" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D1200" s="57" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4">
+      <c r="A1201" s="57" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1201" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1201" s="57" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D1201" s="57" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4">
+      <c r="A1202" s="57" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1202" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1202" s="57" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D1202" s="57" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4">
+      <c r="A1203" s="57" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1203" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1203" s="57" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D1203" s="57" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4">
+      <c r="A1204" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1204" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1204" s="57"/>
+      <c r="D1204" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4">
+      <c r="A1205" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1205" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1205" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1205" s="57"/>
+    </row>
+    <row r="1206" spans="1:4">
+      <c r="A1206" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1206" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1206" s="57"/>
+      <c r="D1206" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4">
+      <c r="A1207" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1207" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1207" s="57" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D1207" s="57"/>
+    </row>
+    <row r="1208" spans="1:4">
+      <c r="A1208" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1208" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1208" s="57" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D1208" s="57"/>
+    </row>
+    <row r="1209" spans="1:4">
+      <c r="A1209" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1209" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1209" s="57" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D1209" s="57"/>
+    </row>
+    <row r="1210" spans="1:4">
+      <c r="A1210" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1210" s="62" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C1210" s="57"/>
+      <c r="D1210" s="57"/>
+    </row>
+    <row r="1211" spans="1:4">
+      <c r="A1211" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1211" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1211" s="57" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D1211" s="57" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4">
+      <c r="A1212" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1212" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1212" s="57" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D1212" s="57"/>
+    </row>
+    <row r="1213" spans="1:4">
+      <c r="A1213" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1213" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1213" s="57" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D1213" s="57"/>
+    </row>
+    <row r="1214" spans="1:4">
+      <c r="A1214" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1214" s="57" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C1214" s="57" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D1214" s="57" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4">
+      <c r="A1215" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1215" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1215" s="57" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D1215" s="57"/>
+    </row>
+    <row r="1216" spans="1:4">
+      <c r="A1216" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1216" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1216" s="57" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D1216" s="57"/>
+    </row>
+    <row r="1217" spans="1:4">
+      <c r="A1217" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1217" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1217" s="57" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D1217" s="57"/>
+    </row>
+    <row r="1218" spans="1:4">
+      <c r="A1218" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1218" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1218" s="57" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D1218" s="57"/>
+    </row>
+    <row r="1219" spans="1:4">
+      <c r="A1219" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1219" s="57" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C1219" s="57" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D1219" s="57" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4">
+      <c r="A1220" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1220" s="57" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C1220" s="57" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D1220" s="57" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4">
+      <c r="A1221" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1221" s="57" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C1221" s="57" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D1221" s="57" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4">
+      <c r="A1222" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1222" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1222" s="57" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D1222" s="57"/>
+    </row>
+    <row r="1223" spans="1:4">
+      <c r="A1223" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1223" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1223" s="57" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D1223" s="57"/>
+    </row>
+    <row r="1224" spans="1:4">
+      <c r="A1224" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1224" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1224" s="57" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D1224" s="57"/>
+    </row>
+    <row r="1225" spans="1:4">
+      <c r="A1225" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1225" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1225" s="57" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D1225" s="57"/>
+    </row>
+    <row r="1226" spans="1:4">
+      <c r="A1226" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1226" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1226" s="57" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D1226" s="57"/>
+    </row>
+    <row r="1227" spans="1:4">
+      <c r="A1227" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1227" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1227" s="57" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D1227" s="57"/>
+    </row>
+    <row r="1228" spans="1:4">
+      <c r="A1228" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1228" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1228" s="57" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D1228" s="57"/>
+    </row>
+    <row r="1229" spans="1:4">
+      <c r="A1229" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1229" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1229" s="57" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D1229" s="57"/>
+    </row>
+    <row r="1230" spans="1:4">
+      <c r="A1230" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1230" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1230" s="57" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D1230" s="57"/>
+    </row>
+    <row r="1231" spans="1:4">
+      <c r="A1231" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1231" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1231" s="57" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D1231" s="57"/>
+    </row>
+    <row r="1232" spans="1:4">
+      <c r="A1232" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1232" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1232" s="57" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D1232" s="57"/>
+    </row>
+    <row r="1233" spans="1:4">
+      <c r="A1233" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1233" s="57" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1233" s="57" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D1233" s="57"/>
+    </row>
+    <row r="1234" spans="1:4">
+      <c r="A1234" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1234" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1234" s="57" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D1234" s="57"/>
+    </row>
+    <row r="1235" spans="1:4">
+      <c r="A1235" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1235" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1235" s="57" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D1235" s="57"/>
+    </row>
+    <row r="1236" spans="1:4">
+      <c r="A1236" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1236" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1236" s="57" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D1236" s="57"/>
+    </row>
+    <row r="1237" spans="1:4">
+      <c r="A1237" s="60"/>
+      <c r="B1237" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1237" s="57" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D1237" s="57" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4">
+      <c r="A1238" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1238" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1238" s="57" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D1238" s="57" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4">
+      <c r="A1239" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1239" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1239" s="57" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D1239" s="57" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4">
+      <c r="A1240" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1240" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1240" s="57" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D1240" s="57" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4">
+      <c r="A1241" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1241" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1241" s="57" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D1241" s="57" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4">
+      <c r="A1242" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1242" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1242" s="57" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D1242" s="57" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4">
+      <c r="A1243" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1243" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1243" s="57" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D1243" s="57" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4">
+      <c r="A1244" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1244" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1244" s="57" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D1244" s="57" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4">
+      <c r="A1245" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1245" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1245" s="57" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D1245" s="57" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4">
+      <c r="A1246" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1246" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1246" s="57" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D1246" s="57" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4">
+      <c r="A1247" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1247" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1247" s="57" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D1247" s="57" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4">
+      <c r="A1248" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1248" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1248" s="57" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D1248" s="57" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4">
+      <c r="A1249" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1249" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1249" s="57" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D1249" s="57" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4">
+      <c r="A1250" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1250" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1250" s="57" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D1250" s="57" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4">
+      <c r="A1251" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1251" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1251" s="57" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D1251" s="57" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4">
+      <c r="A1252" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1252" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1252" s="57" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D1252" s="57" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4">
+      <c r="A1253" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1253" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1253" s="57" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D1253" s="57" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4">
+      <c r="A1254" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1254" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1254" s="57" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D1254" s="57" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4">
+      <c r="A1255" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1255" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1255" s="57" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D1255" s="57" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4">
+      <c r="A1256" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1256" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1256" s="57" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D1256" s="57" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4">
+      <c r="A1257" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1257" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1257" s="57" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D1257" s="57" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4">
+      <c r="A1258" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1258" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1258" s="57" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D1258" s="57" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4">
+      <c r="A1259" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1259" s="57" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C1259" s="57" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D1259" s="57" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4">
+      <c r="A1260" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1260" s="57" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C1260" s="57" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D1260" s="57" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4">
+      <c r="A1261" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1261" s="57" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C1261" s="57" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D1261" s="57" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4">
+      <c r="A1262" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1262" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1262" s="57" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D1262" s="57" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4">
+      <c r="A1263" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1263" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1263" s="57" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D1263" s="57" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4">
+      <c r="A1264" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1264" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1264" s="57" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D1264" s="57" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4">
+      <c r="A1265" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1265" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1265" s="57" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D1265" s="57" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4">
+      <c r="A1266" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1266" s="57" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C1266" s="57" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D1266" s="57" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4">
+      <c r="A1267" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1267" s="57" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C1267" s="57" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D1267" s="57" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4">
+      <c r="A1268" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1268" s="57" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C1268" s="57" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D1268" s="57" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4">
+      <c r="A1269" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1269" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1269" s="57" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D1269" s="57"/>
+    </row>
+    <row r="1270" spans="1:4">
+      <c r="A1270" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1270" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1270" s="57" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D1270" s="57" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4">
+      <c r="A1271" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1271" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1271" s="57" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D1271" s="57" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4">
+      <c r="A1272" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1272" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1272" s="57" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D1272" s="57" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4">
+      <c r="A1273" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1273" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1273" s="57" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D1273" s="57"/>
+    </row>
+    <row r="1274" spans="1:4">
+      <c r="A1274" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1274" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1274" s="57" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D1274" s="57"/>
+    </row>
+    <row r="1275" spans="1:4">
+      <c r="A1275" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1275" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1275" s="57" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D1275" s="57"/>
+    </row>
+    <row r="1276" spans="1:4">
+      <c r="A1276" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1276" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1276" s="57" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D1276" s="57" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4">
+      <c r="A1277" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1277" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1277" s="57" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D1277" s="57" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4">
+      <c r="A1278" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1278" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1278" s="57" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D1278" s="57" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4">
+      <c r="A1279" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1279" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1279" s="57" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D1279" s="57" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4">
+      <c r="A1280" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1280" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1280" s="57" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D1280" s="57"/>
+    </row>
+    <row r="1281" spans="1:4">
+      <c r="A1281" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1281" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1281" s="57" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D1281" s="57"/>
+    </row>
+    <row r="1282" spans="1:4">
+      <c r="A1282" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1282" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1282" s="57" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D1282" s="57" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4">
+      <c r="A1283" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1283" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1283" s="57" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D1283" s="57" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4">
+      <c r="A1284" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1284" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1284" s="57" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D1284" s="57"/>
+    </row>
+    <row r="1285" spans="1:4">
+      <c r="A1285" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1285" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1285" s="57" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D1285" s="57"/>
+    </row>
+    <row r="1286" spans="1:4">
+      <c r="A1286" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1286" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1286" s="57" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D1286" s="57" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4">
+      <c r="A1287" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1287" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1287" s="57" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D1287" s="57" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4">
+      <c r="A1288" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1288" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1288" s="57" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D1288" s="57"/>
+    </row>
+    <row r="1289" spans="1:4">
+      <c r="A1289" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1289" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1289" s="57" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D1289" s="57"/>
+    </row>
+    <row r="1290" spans="1:4">
+      <c r="A1290" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1290" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1290" s="57" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D1290" s="57" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4">
+      <c r="A1291" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1291" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1291" s="57" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D1291" s="57" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4">
+      <c r="A1292" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1292" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1292" s="57" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D1292" s="57"/>
+    </row>
+    <row r="1293" spans="1:4">
+      <c r="A1293" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1293" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1293" s="57" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D1293" s="57" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4">
+      <c r="A1294" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1294" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1294" s="57" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D1294" s="57"/>
+    </row>
+    <row r="1295" spans="1:4">
+      <c r="A1295" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1295" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1295" s="57" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D1295" s="57"/>
+    </row>
+    <row r="1296" spans="1:4">
+      <c r="A1296" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1296" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1296" s="57" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D1296" s="57"/>
+    </row>
+    <row r="1297" spans="1:4">
+      <c r="A1297" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1297" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1297" s="57" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D1297" s="57"/>
+    </row>
+    <row r="1298" spans="1:4">
+      <c r="A1298" s="60" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1298" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1298" s="57" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D1298" s="57"/>
+    </row>
+    <row r="1299" spans="1:4">
+      <c r="A1299" s="60" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1299" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1299" s="57"/>
+      <c r="D1299" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4">
+      <c r="A1300" s="60" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1300" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1300" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1300" s="57"/>
+    </row>
+    <row r="1301" spans="1:4">
+      <c r="A1301" s="60" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1301" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1301" s="57"/>
+      <c r="D1301" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4">
+      <c r="A1302" s="60"/>
+      <c r="B1302" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1302" s="57" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D1302" s="57" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4">
+      <c r="A1303" s="60" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1303" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1303" s="57" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D1303" s="57" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4">
+      <c r="A1304" s="60" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1304" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1304" s="57" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D1304" s="57" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4">
+      <c r="A1305" s="58" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1305" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1305" s="57"/>
+      <c r="D1305" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4">
+      <c r="A1306" s="58" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1306" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1306" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1306" s="57"/>
+    </row>
+    <row r="1307" spans="1:4">
+      <c r="A1307" s="58" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1307" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1307" s="57"/>
+      <c r="D1307" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4">
+      <c r="A1308" s="58" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1308" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1308" s="57" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1308" s="57"/>
+    </row>
+    <row r="1309" spans="1:4">
+      <c r="A1309" s="58" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1309" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1309" s="57" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D1309" s="57"/>
+    </row>
+    <row r="1310" spans="1:4">
+      <c r="A1310" s="58" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1310" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1310" s="57" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D1310" s="57" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4">
+      <c r="A1311" s="58" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1311" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1311" s="57" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D1311" s="57"/>
+    </row>
+    <row r="1312" spans="1:4">
+      <c r="A1312" s="58" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1312" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1312" s="57" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D1312" s="57" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4">
+      <c r="A1313" s="58" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1313" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1313" s="57" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D1313" s="57" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4">
+      <c r="A1314" s="57" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1314" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1314" s="57"/>
+      <c r="D1314" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4">
+      <c r="A1315" s="57" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1315" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1315" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1315" s="57"/>
+    </row>
+    <row r="1316" spans="1:4">
+      <c r="A1316" s="57" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1316" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1316" s="57"/>
+      <c r="D1316" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4">
+      <c r="A1317" s="57" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1317" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1317" s="57" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D1317" s="57" t="s">
+        <v>1270</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/com/supplierconnection/xls/TestSuite1.xlsx
+++ b/src/com/supplierconnection/xls/TestSuite1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="2055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="2055"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5602" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5659" uniqueCount="1297">
   <si>
     <t>TCID</t>
   </si>
@@ -3850,6 +3850,84 @@
   </si>
   <si>
     <t>supp_eventhead</t>
+  </si>
+  <si>
+    <t>Static page</t>
+  </si>
+  <si>
+    <t>invite via email</t>
+  </si>
+  <si>
+    <t>supplier step5</t>
+  </si>
+  <si>
+    <t>supplier dashboard new feature</t>
+  </si>
+  <si>
+    <t>supplier announcements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supplier dashboard </t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>supp dashboard</t>
+  </si>
+  <si>
+    <t>supplier events</t>
+  </si>
+  <si>
+    <t>Step6</t>
+  </si>
+  <si>
+    <t>CompanyProfile</t>
+  </si>
+  <si>
+    <t>comp profile</t>
+  </si>
+  <si>
+    <t>SuppEvents</t>
+  </si>
+  <si>
+    <t>event page</t>
+  </si>
+  <si>
+    <t>FeaturedSupplier</t>
+  </si>
+  <si>
+    <t>dashboard supplier</t>
+  </si>
+  <si>
+    <t>SuppSocial</t>
+  </si>
+  <si>
+    <t>social page</t>
+  </si>
+  <si>
+    <t>LinkedlnSection</t>
+  </si>
+  <si>
+    <t>linkedlnpage</t>
+  </si>
+  <si>
+    <t>MemberSince</t>
+  </si>
+  <si>
+    <t>memberlogo</t>
+  </si>
+  <si>
+    <t>Webinars</t>
+  </si>
+  <si>
+    <t>Webinar page</t>
+  </si>
+  <si>
+    <t>Supp_AlertPref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alert preferences </t>
   </si>
 </sst>
 </file>
@@ -4441,10 +4519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4750,6 +4828,215 @@
         <v>4</v>
       </c>
     </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="57" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="57" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="57" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="57" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="57" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="57" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="57" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="57" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="57" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="57" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="57" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="57" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="57" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="57" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="57" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B43" s="57" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="57" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B44" s="57" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="57" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B45" s="57" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="57" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B46" s="57" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="57" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4759,7 +5046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1109" workbookViewId="0">
+    <sheetView topLeftCell="A1109" workbookViewId="0">
       <selection activeCell="A1111" sqref="A1111:D1317"/>
     </sheetView>
   </sheetViews>

--- a/src/com/supplierconnection/xls/TestSuite1.xlsx
+++ b/src/com/supplierconnection/xls/TestSuite1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="2055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="2055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5730" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6442" uniqueCount="1390">
   <si>
     <t>TCID</t>
   </si>
@@ -3731,6 +3731,489 @@
   </si>
   <si>
     <t>Key Contact phone number</t>
+  </si>
+  <si>
+    <t>SupplierAcademy</t>
+  </si>
+  <si>
+    <t>WelcomeTab</t>
+  </si>
+  <si>
+    <t>verifyPage</t>
+  </si>
+  <si>
+    <t>C:/Users/IBM_ADMIN/Eclipse/workspace/Supplier Connection/Images/SupplierAcademy.png</t>
+  </si>
+  <si>
+    <t>Eligibility</t>
+  </si>
+  <si>
+    <t>https://100x02.lexington.ibm.com/SupplierConnection/eligibility.html</t>
+  </si>
+  <si>
+    <t>C:/Users/IBM_ADMIN/Eclipse/workspace/Supplier Connection/Images/Eligibility.png</t>
+  </si>
+  <si>
+    <t>Step5</t>
+  </si>
+  <si>
+    <t>supplierbutton_xpath</t>
+  </si>
+  <si>
+    <t>companyprofile_xpath</t>
+  </si>
+  <si>
+    <t>step5_xpath</t>
+  </si>
+  <si>
+    <t>isoradio1</t>
+  </si>
+  <si>
+    <t>isoradio2</t>
+  </si>
+  <si>
+    <t>cleartext</t>
+  </si>
+  <si>
+    <t>isodate</t>
+  </si>
+  <si>
+    <t>isomonth</t>
+  </si>
+  <si>
+    <t>isoyear</t>
+  </si>
+  <si>
+    <t>env_radio</t>
+  </si>
+  <si>
+    <t>env_radio1</t>
+  </si>
+  <si>
+    <t>env_radio2</t>
+  </si>
+  <si>
+    <t>env_radio3</t>
+  </si>
+  <si>
+    <t>env_radio4</t>
+  </si>
+  <si>
+    <t>env_radio5</t>
+  </si>
+  <si>
+    <t>env_radio6</t>
+  </si>
+  <si>
+    <t>env_radio7</t>
+  </si>
+  <si>
+    <t>env_radio8</t>
+  </si>
+  <si>
+    <t>env_radio9</t>
+  </si>
+  <si>
+    <t>env_radio10</t>
+  </si>
+  <si>
+    <t>env_date</t>
+  </si>
+  <si>
+    <t>env_month</t>
+  </si>
+  <si>
+    <t>env_year</t>
+  </si>
+  <si>
+    <t>env_radio11</t>
+  </si>
+  <si>
+    <t>env_radio12</t>
+  </si>
+  <si>
+    <t>env_radio13</t>
+  </si>
+  <si>
+    <t>plan_certd</t>
+  </si>
+  <si>
+    <t>plan_certm</t>
+  </si>
+  <si>
+    <t>plan_certy</t>
+  </si>
+  <si>
+    <t>env_radio14</t>
+  </si>
+  <si>
+    <t>env_radio15</t>
+  </si>
+  <si>
+    <t>env_radio16</t>
+  </si>
+  <si>
+    <t>step5_text5</t>
+  </si>
+  <si>
+    <t>savcont5</t>
+  </si>
+  <si>
+    <t>step5val1</t>
+  </si>
+  <si>
+    <t>step5val2</t>
+  </si>
+  <si>
+    <t>nenv_date</t>
+  </si>
+  <si>
+    <t>nenv_month</t>
+  </si>
+  <si>
+    <t>nenv_year</t>
+  </si>
+  <si>
+    <t>nplan_certd</t>
+  </si>
+  <si>
+    <t>nplan_certm</t>
+  </si>
+  <si>
+    <t>nplan_certy</t>
+  </si>
+  <si>
+    <t>nisodate</t>
+  </si>
+  <si>
+    <t>nisomonth</t>
+  </si>
+  <si>
+    <t>nisoyear</t>
+  </si>
+  <si>
+    <t>step5_text</t>
+  </si>
+  <si>
+    <t>step5_text1</t>
+  </si>
+  <si>
+    <t>step5val4</t>
+  </si>
+  <si>
+    <t>step5val5</t>
+  </si>
+  <si>
+    <t>step5_text2</t>
+  </si>
+  <si>
+    <t>step5_text3</t>
+  </si>
+  <si>
+    <t>step5_text4</t>
+  </si>
+  <si>
+    <t>NewFeature</t>
+  </si>
+  <si>
+    <t>newfeature</t>
+  </si>
+  <si>
+    <t>newfeature2</t>
+  </si>
+  <si>
+    <t>Announcements</t>
+  </si>
+  <si>
+    <t>announcements</t>
+  </si>
+  <si>
+    <t>announcements1</t>
+  </si>
+  <si>
+    <t>announcements2</t>
+  </si>
+  <si>
+    <t>Showyoursupport</t>
+  </si>
+  <si>
+    <t>showyoursupport</t>
+  </si>
+  <si>
+    <t>downloadbadge</t>
+  </si>
+  <si>
+    <t>badgesize</t>
+  </si>
+  <si>
+    <t>showyoursupport2</t>
+  </si>
+  <si>
+    <t>Step2</t>
+  </si>
+  <si>
+    <t>step2_xpath</t>
+  </si>
+  <si>
+    <t>waits</t>
+  </si>
+  <si>
+    <t>step2_val</t>
+  </si>
+  <si>
+    <t>step2_day</t>
+  </si>
+  <si>
+    <t>step2_year</t>
+  </si>
+  <si>
+    <t>selectdropdown</t>
+  </si>
+  <si>
+    <t>step2_drop</t>
+  </si>
+  <si>
+    <t>step2_day1</t>
+  </si>
+  <si>
+    <t>step2_year1</t>
+  </si>
+  <si>
+    <t>step2_text</t>
+  </si>
+  <si>
+    <t>step2_text2</t>
+  </si>
+  <si>
+    <t>checkboxset</t>
+  </si>
+  <si>
+    <t>step2_check1</t>
+  </si>
+  <si>
+    <t>step2_check2</t>
+  </si>
+  <si>
+    <t>step2_check3</t>
+  </si>
+  <si>
+    <t>step2_textbox</t>
+  </si>
+  <si>
+    <t>step2_textbox1</t>
+  </si>
+  <si>
+    <t>step2_textbox2</t>
+  </si>
+  <si>
+    <t>step2_textbox3</t>
+  </si>
+  <si>
+    <t>step2_textbox4</t>
+  </si>
+  <si>
+    <t>step2_textbox5</t>
+  </si>
+  <si>
+    <t>step2_textbox6</t>
+  </si>
+  <si>
+    <t>step2_textbox7</t>
+  </si>
+  <si>
+    <t>step2_textbox8</t>
+  </si>
+  <si>
+    <t>step2_textbox9</t>
+  </si>
+  <si>
+    <t>step2_textbox10</t>
+  </si>
+  <si>
+    <t>step2_textbox11</t>
+  </si>
+  <si>
+    <t>step2_radio</t>
+  </si>
+  <si>
+    <t>step2_radio2</t>
+  </si>
+  <si>
+    <t>step2_submit</t>
+  </si>
+  <si>
+    <t>step2_val1</t>
+  </si>
+  <si>
+    <t>step2_val2</t>
+  </si>
+  <si>
+    <t>step2_val3</t>
+  </si>
+  <si>
+    <t>step2_val4</t>
+  </si>
+  <si>
+    <t>step2_val5</t>
+  </si>
+  <si>
+    <t>step2_val6</t>
+  </si>
+  <si>
+    <t>step2_val7</t>
+  </si>
+  <si>
+    <t>step2_val8</t>
+  </si>
+  <si>
+    <t>step2_val9</t>
+  </si>
+  <si>
+    <t>step2_val10</t>
+  </si>
+  <si>
+    <t>step2_val11</t>
+  </si>
+  <si>
+    <t>step2_val12</t>
+  </si>
+  <si>
+    <t>step2_val13</t>
+  </si>
+  <si>
+    <t>step2_val14</t>
+  </si>
+  <si>
+    <t>step2_val15</t>
+  </si>
+  <si>
+    <t>step2_val16</t>
+  </si>
+  <si>
+    <t>step2_val17</t>
+  </si>
+  <si>
+    <t>step2_val18</t>
+  </si>
+  <si>
+    <t>step2_mon</t>
+  </si>
+  <si>
+    <t>step2_mon1</t>
+  </si>
+  <si>
+    <t>step2_incorp</t>
+  </si>
+  <si>
+    <t>step2_liab</t>
+  </si>
+  <si>
+    <t>step2_exch</t>
+  </si>
+  <si>
+    <t>step2_reg</t>
+  </si>
+  <si>
+    <t>step2_temp</t>
+  </si>
+  <si>
+    <t>nstep2_check1</t>
+  </si>
+  <si>
+    <t>nstep2_check2</t>
+  </si>
+  <si>
+    <t>nstep2_check3</t>
+  </si>
+  <si>
+    <t>step2_industcheck</t>
+  </si>
+  <si>
+    <t>step2_naics</t>
+  </si>
+  <si>
+    <t>step2_area</t>
+  </si>
+  <si>
+    <t>step2_inter</t>
+  </si>
+  <si>
+    <t>step2_legalrad</t>
+  </si>
+  <si>
+    <t>step2_contr</t>
+  </si>
+  <si>
+    <t>step2_stat</t>
+  </si>
+  <si>
+    <t>step2_contr2</t>
+  </si>
+  <si>
+    <t>step2_stat2</t>
+  </si>
+  <si>
+    <t>step2_contr3</t>
+  </si>
+  <si>
+    <t>step2_stat3</t>
+  </si>
+  <si>
+    <t>step2_cage</t>
+  </si>
+  <si>
+    <t>step2_cage1</t>
+  </si>
+  <si>
+    <t>step2_teaming</t>
+  </si>
+  <si>
+    <t>step2_fedrad</t>
+  </si>
+  <si>
+    <t>step2_secur</t>
+  </si>
+  <si>
+    <t>step2_pers</t>
+  </si>
+  <si>
+    <t>step2_save</t>
+  </si>
+  <si>
+    <t>Confirmation</t>
+  </si>
+  <si>
+    <t>conf_text</t>
+  </si>
+  <si>
+    <t>conf_text1</t>
+  </si>
+  <si>
+    <t>conf_head</t>
+  </si>
+  <si>
+    <t>InviteAsupplier</t>
+  </si>
+  <si>
+    <t>invitesupplierlink</t>
+  </si>
+  <si>
+    <t>invs_submit</t>
+  </si>
+  <si>
+    <t>invs_val</t>
+  </si>
+  <si>
+    <t>invs_review</t>
+  </si>
+  <si>
+    <t>invs_text</t>
+  </si>
+  <si>
+    <t>Supp_Events</t>
+  </si>
+  <si>
+    <t>supp_eventhead</t>
   </si>
 </sst>
 </file>
@@ -3947,7 +4430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4038,6 +4521,10 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4343,7 +4830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -4690,10 +5177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1297"/>
+  <dimension ref="A1:G1504"/>
   <sheetViews>
-    <sheetView topLeftCell="A685" workbookViewId="0">
-      <selection activeCell="A697" sqref="A697"/>
+    <sheetView tabSelected="1" topLeftCell="A1483" workbookViewId="0">
+      <selection activeCell="A1507" sqref="A1507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20580,7 +21067,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="1297" spans="1:3">
+    <row r="1297" spans="1:4">
       <c r="A1297" t="s">
         <v>1135</v>
       </c>
@@ -20589,6 +21076,2568 @@
       </c>
       <c r="C1297" t="s">
         <v>1192</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4">
+      <c r="A1298" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1298" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1298" s="7"/>
+      <c r="D1298" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4">
+      <c r="A1299" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1299" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1299" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1299" s="7"/>
+    </row>
+    <row r="1300" spans="1:4">
+      <c r="A1300" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1300" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1300" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D1300" s="7"/>
+    </row>
+    <row r="1301" spans="1:4">
+      <c r="A1301" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1301" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1301" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D1301" s="7"/>
+    </row>
+    <row r="1302" spans="1:4">
+      <c r="A1302" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1302" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C1302" s="68" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D1302" s="7"/>
+    </row>
+    <row r="1303" spans="1:4">
+      <c r="A1303" s="7" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1303" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1303" s="7"/>
+      <c r="D1303" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4">
+      <c r="A1304" s="7" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1304" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1304" s="7" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D1304" s="7"/>
+    </row>
+    <row r="1305" spans="1:4">
+      <c r="A1305" s="7" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1305" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1305" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D1305" s="7"/>
+    </row>
+    <row r="1306" spans="1:4">
+      <c r="A1306" s="7" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1306" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1306" s="7" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D1306" s="7"/>
+    </row>
+    <row r="1307" spans="1:4">
+      <c r="A1307" s="7" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1307" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C1307" s="7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D1307" s="7"/>
+    </row>
+    <row r="1308" spans="1:4">
+      <c r="A1308" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1308" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4">
+      <c r="A1309" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1309" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4">
+      <c r="A1310" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1310" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4">
+      <c r="A1311" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4">
+      <c r="A1312" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1312" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4">
+      <c r="A1313" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1313" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4">
+      <c r="A1314" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1314" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4">
+      <c r="A1315" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1315" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4">
+      <c r="A1316" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1316" s="70" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4">
+      <c r="A1317" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1317" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4">
+      <c r="A1318" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1318" s="70" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4">
+      <c r="A1319" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1319" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4">
+      <c r="A1320" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1320" s="70" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4">
+      <c r="A1321" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1321" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4">
+      <c r="A1322" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1322" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4">
+      <c r="A1323" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1323" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4">
+      <c r="A1324" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1324" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4">
+      <c r="A1325" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1325" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4">
+      <c r="A1326" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1326" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4">
+      <c r="A1327" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1327" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4">
+      <c r="A1328" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1328" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4">
+      <c r="A1329" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1329" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4">
+      <c r="A1330" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1330" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4">
+      <c r="A1331" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1331" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4">
+      <c r="A1332" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1332" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4">
+      <c r="A1333" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1333" s="70" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4">
+      <c r="A1334" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1334" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4">
+      <c r="A1335" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1335" s="70" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4">
+      <c r="A1336" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1336" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4">
+      <c r="A1337" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1337" s="70" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4">
+      <c r="A1338" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1338" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4">
+      <c r="A1339" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1339" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4">
+      <c r="A1340" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1340" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4">
+      <c r="A1341" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1341" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4">
+      <c r="A1342" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1342" s="70" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4">
+      <c r="A1343" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1343" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4">
+      <c r="A1344" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1344" s="70" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4">
+      <c r="A1345" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1345" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4">
+      <c r="A1346" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1346" s="70" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4">
+      <c r="A1347" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1347" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4">
+      <c r="A1348" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1348" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4">
+      <c r="A1349" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1349" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4">
+      <c r="A1350" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1350" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4">
+      <c r="A1351" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1351" s="70" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4">
+      <c r="A1352" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1352" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4">
+      <c r="A1353" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1353" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4">
+      <c r="A1354" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1354" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4">
+      <c r="A1355" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1355" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4">
+      <c r="A1356" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1356" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4">
+      <c r="A1357" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1357" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4">
+      <c r="A1358" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1358" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4">
+      <c r="A1359" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1359" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4">
+      <c r="A1360" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1360" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4">
+      <c r="A1361" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1361" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:4">
+      <c r="A1362" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1362" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:4">
+      <c r="A1363" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1363" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:4">
+      <c r="A1364" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1364" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:4">
+      <c r="A1365" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1365" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:4">
+      <c r="A1366" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1366" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:4">
+      <c r="A1367" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1367" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:4">
+      <c r="A1368" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1368" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:4">
+      <c r="A1369" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1369" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:4">
+      <c r="A1370" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1370" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4">
+      <c r="A1371" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1371" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4">
+      <c r="A1372" s="59" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1372" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:4">
+      <c r="A1373" s="59" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1373" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4">
+      <c r="A1374" s="59" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1374" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:4">
+      <c r="A1375" s="59" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1375" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:4">
+      <c r="A1376" s="59" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1376" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:4">
+      <c r="A1377" s="59" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1377" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:4">
+      <c r="A1378" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1378" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:4">
+      <c r="A1379" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1379" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:4">
+      <c r="A1380" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1380" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:4">
+      <c r="A1381" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1381" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:4">
+      <c r="A1382" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1382" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:4">
+      <c r="B1383" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4">
+      <c r="A1384" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1384" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:4">
+      <c r="A1385" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1385" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4">
+      <c r="A1386" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1386" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4">
+      <c r="A1387" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1387" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4">
+      <c r="A1388" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1388" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4">
+      <c r="A1389" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1389" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4">
+      <c r="A1390" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1390" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4">
+      <c r="A1391" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1391" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4">
+      <c r="A1392" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1392" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:4">
+      <c r="A1393" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1393" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:4">
+      <c r="A1394" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:4">
+      <c r="A1395" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1395" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:4">
+      <c r="A1396" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1396" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:4">
+      <c r="A1397" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1397" s="70" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:4">
+      <c r="A1398" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1398" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:4">
+      <c r="A1399" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:4">
+      <c r="A1400" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:4">
+      <c r="A1401" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:4">
+      <c r="A1402" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:4">
+      <c r="A1403" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:4">
+      <c r="A1404" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:4">
+      <c r="A1405" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:4">
+      <c r="A1406" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:4">
+      <c r="A1407" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:4">
+      <c r="A1408" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:4">
+      <c r="A1409" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:4">
+      <c r="A1410" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:4">
+      <c r="A1411" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:4">
+      <c r="A1412" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:4">
+      <c r="A1413" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:4">
+      <c r="A1414" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:4">
+      <c r="A1415" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:4">
+      <c r="A1416" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:4">
+      <c r="A1417" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:4">
+      <c r="A1418" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:4">
+      <c r="A1419" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:4">
+      <c r="A1420" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:4">
+      <c r="A1421" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:4">
+      <c r="A1422" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:4">
+      <c r="A1423" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:4">
+      <c r="A1424" s="59"/>
+      <c r="B1424" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:4">
+      <c r="A1425" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:4">
+      <c r="A1426" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:4">
+      <c r="A1427" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:4">
+      <c r="A1428" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:4">
+      <c r="A1429" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:4">
+      <c r="A1430" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:4">
+      <c r="A1431" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:4">
+      <c r="A1432" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:4">
+      <c r="A1433" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:4">
+      <c r="A1434" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:4">
+      <c r="A1435" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:4">
+      <c r="A1436" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:4">
+      <c r="A1437" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:4">
+      <c r="A1438" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:4">
+      <c r="A1439" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:4">
+      <c r="A1440" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4">
+      <c r="A1441" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:4">
+      <c r="A1442" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:4">
+      <c r="A1443" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:4">
+      <c r="A1444" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4">
+      <c r="A1445" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:4">
+      <c r="A1446" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:4">
+      <c r="A1447" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:4">
+      <c r="A1448" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:4">
+      <c r="A1449" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:4">
+      <c r="A1450" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:4">
+      <c r="A1451" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:4">
+      <c r="A1452" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:4">
+      <c r="A1453" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:4">
+      <c r="A1454" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:4">
+      <c r="A1455" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:4">
+      <c r="A1456" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:4">
+      <c r="A1457" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:4">
+      <c r="A1458" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:4">
+      <c r="A1459" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:4">
+      <c r="A1460" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:4">
+      <c r="A1461" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:4">
+      <c r="A1462" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:4">
+      <c r="A1463" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:4">
+      <c r="A1464" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:4">
+      <c r="A1465" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:4">
+      <c r="A1466" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:4">
+      <c r="A1467" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:4">
+      <c r="A1468" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:4">
+      <c r="A1469" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:4">
+      <c r="A1470" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:4">
+      <c r="A1471" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:4">
+      <c r="A1472" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:4">
+      <c r="A1473" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:4">
+      <c r="A1474" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:4">
+      <c r="A1475" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:4">
+      <c r="A1476" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:4">
+      <c r="A1477" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:4">
+      <c r="A1478" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:4">
+      <c r="A1479" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:4">
+      <c r="A1480" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:4">
+      <c r="A1481" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:4">
+      <c r="A1482" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:4">
+      <c r="A1483" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:4">
+      <c r="A1484" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:4">
+      <c r="A1485" s="59" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:4">
+      <c r="A1486" s="59" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1486" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:4">
+      <c r="A1487" s="59" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1487" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:4">
+      <c r="A1488" s="59" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1488" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:4">
+      <c r="A1489" s="59"/>
+      <c r="B1489" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:4">
+      <c r="A1490" s="59" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1490" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:4">
+      <c r="A1491" s="59" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B1491" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:4">
+      <c r="A1492" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1492" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:4">
+      <c r="A1493" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1493" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:4">
+      <c r="A1494" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1494" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:4">
+      <c r="A1495" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1495" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:4">
+      <c r="A1496" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1496" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:4">
+      <c r="A1497" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1497" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:4">
+      <c r="A1498" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1498" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:4">
+      <c r="A1499" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1499" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:4">
+      <c r="A1500" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1500" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:4">
+      <c r="A1501" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B1501" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:4">
+      <c r="A1502" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B1502" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:4">
+      <c r="A1503" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B1503" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:4">
+      <c r="A1504" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B1504" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>1389</v>
       </c>
     </row>
   </sheetData>
@@ -23022,7 +26071,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="90">
+    <row r="104" spans="1:30" ht="255">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -23215,7 +26264,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="90">
+    <row r="108" spans="1:30" ht="255">
       <c r="A108" t="s">
         <v>4</v>
       </c>

--- a/src/com/supplierconnection/xls/TestSuite1.xlsx
+++ b/src/com/supplierconnection/xls/TestSuite1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6504" uniqueCount="1400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6604" uniqueCount="1405">
   <si>
     <t>TCID</t>
   </si>
@@ -4244,6 +4244,21 @@
   </si>
   <si>
     <t>NAICS search and verify the result in buyer portal</t>
+  </si>
+  <si>
+    <t>gotofindasupplierByrole</t>
+  </si>
+  <si>
+    <t>verifybookmark_profile</t>
+  </si>
+  <si>
+    <t>dashboard_bookmarkcheck</t>
+  </si>
+  <si>
+    <t>detailpage_bookmarkcheck</t>
+  </si>
+  <si>
+    <t>Checking bookmark active/inactive in saved bookmark</t>
   </si>
 </sst>
 </file>
@@ -4868,10 +4883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:C31"/>
+      <selection activeCell="A32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5221,6 +5236,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5228,10 +5254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1524"/>
+  <dimension ref="A1:G1531"/>
   <sheetViews>
-    <sheetView topLeftCell="A1502" workbookViewId="0">
-      <selection activeCell="A1505" sqref="A1505:D1524"/>
+    <sheetView topLeftCell="A1511" workbookViewId="0">
+      <selection activeCell="A1519" sqref="A1519:D1531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23860,40 +23886,162 @@
       <c r="D1518" s="35"/>
     </row>
     <row r="1519" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1519" s="35"/>
-      <c r="B1519" s="35"/>
-      <c r="C1519" s="35"/>
-      <c r="D1519" s="35"/>
+      <c r="A1519" s="35" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1519" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1519" s="72"/>
+      <c r="D1519" s="72" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1520" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1520" s="35"/>
-      <c r="B1520" s="35"/>
-      <c r="C1520" s="35"/>
-      <c r="D1520" s="35"/>
+      <c r="A1520" s="35" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1520" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1520" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1520" s="72"/>
     </row>
     <row r="1521" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1521" s="35"/>
-      <c r="B1521" s="35"/>
-      <c r="C1521" s="35"/>
-      <c r="D1521" s="35"/>
+      <c r="A1521" s="35" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1521" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1521" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1521" s="72" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="1522" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1522" s="35"/>
-      <c r="B1522" s="35"/>
-      <c r="C1522" s="35"/>
-      <c r="D1522" s="35"/>
+      <c r="A1522" s="35" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1522" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1522" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1522" s="72" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1523" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1523" s="35"/>
-      <c r="B1523" s="35"/>
-      <c r="C1523" s="35"/>
-      <c r="D1523" s="35"/>
+      <c r="A1523" s="35" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1523" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1523" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1523" s="72"/>
     </row>
     <row r="1524" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1524" s="35"/>
-      <c r="B1524" s="35"/>
-      <c r="C1524" s="35"/>
-      <c r="D1524" s="35"/>
+      <c r="A1524" s="35" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1524" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1524" s="72"/>
+      <c r="D1524" s="53"/>
+    </row>
+    <row r="1525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1525" s="35" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1525" s="52" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C1525" s="72"/>
+      <c r="D1525" s="73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1526" s="35" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1526" s="35" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C1526" s="72"/>
+      <c r="D1526" s="72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1527" s="35" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1527" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1527" s="35"/>
+      <c r="D1527" s="53" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1528" s="35" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1528" s="52" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C1528" s="72"/>
+      <c r="D1528" s="73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1529" s="35" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1529" s="35" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C1529" s="35"/>
+      <c r="D1529" s="72" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1530" s="35" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1530" s="35" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C1530" s="35"/>
+      <c r="D1530" s="53" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1531" s="35" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1531" s="35" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C1531" s="35"/>
+      <c r="D1531" s="53" t="s">
+        <v>1120</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23903,10 +24051,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO114"/>
+  <dimension ref="A1:AO124"/>
   <sheetViews>
     <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:D114"/>
+      <selection activeCell="A119" sqref="A119:A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26635,7 +26783,7 @@
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
@@ -26647,9 +26795,9 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
@@ -26661,7 +26809,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -26673,6 +26821,195 @@
       </c>
       <c r="D114" s="15" t="s">
         <v>1393</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="21" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F117" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G117" s="27" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" t="s">
+        <v>53</v>
+      </c>
+      <c r="D118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F118" t="s">
+        <v>43</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D119" t="s">
+        <v>132</v>
+      </c>
+      <c r="E119" s="62" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F119" t="s">
+        <v>42</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" t="s">
+        <v>130</v>
+      </c>
+      <c r="D120" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F120" t="s">
+        <v>44</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" t="s">
+        <v>130</v>
+      </c>
+      <c r="D121" t="s">
+        <v>27</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F121" t="s">
+        <v>44</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" t="s">
+        <v>130</v>
+      </c>
+      <c r="D122" t="s">
+        <v>27</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F122" t="s">
+        <v>44</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" t="s">
+        <v>27</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" t="s">
+        <v>37</v>
+      </c>
+      <c r="D124" t="s">
+        <v>27</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1118</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/supplierconnection/xls/TestSuite1.xlsx
+++ b/src/com/supplierconnection/xls/TestSuite1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="2055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="2055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6604" uniqueCount="1405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6932" uniqueCount="1483">
   <si>
     <t>TCID</t>
   </si>
@@ -4260,11 +4260,245 @@
   <si>
     <t>Checking bookmark active/inactive in saved bookmark</t>
   </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>SavedSearch</t>
+  </si>
+  <si>
+    <t>OpportunityPost</t>
+  </si>
+  <si>
+    <t>eventsText</t>
+  </si>
+  <si>
+    <t>Expected Data</t>
+  </si>
+  <si>
+    <t>suggestAnEvent</t>
+  </si>
+  <si>
+    <t>suggestAnEven_text_onThePage</t>
+  </si>
+  <si>
+    <t>Expected Data_Events_Overlay</t>
+  </si>
+  <si>
+    <t>eventTitle</t>
+  </si>
+  <si>
+    <t>Event_Title_Input</t>
+  </si>
+  <si>
+    <t>Website_Input</t>
+  </si>
+  <si>
+    <t>eventHashtag</t>
+  </si>
+  <si>
+    <t>EventHashtag_Input</t>
+  </si>
+  <si>
+    <t>eventCity</t>
+  </si>
+  <si>
+    <t>Event_City</t>
+  </si>
+  <si>
+    <t>Select_State</t>
+  </si>
+  <si>
+    <t>startMonth</t>
+  </si>
+  <si>
+    <t>Start_Month</t>
+  </si>
+  <si>
+    <t>startDay</t>
+  </si>
+  <si>
+    <t>Start_Day</t>
+  </si>
+  <si>
+    <t>startYear</t>
+  </si>
+  <si>
+    <t>Start_Year</t>
+  </si>
+  <si>
+    <t>endMonth</t>
+  </si>
+  <si>
+    <t>End_Month</t>
+  </si>
+  <si>
+    <t>endDay</t>
+  </si>
+  <si>
+    <t>End_Day</t>
+  </si>
+  <si>
+    <t>endYear</t>
+  </si>
+  <si>
+    <t>End_Year</t>
+  </si>
+  <si>
+    <t>IBM_checkBox</t>
+  </si>
+  <si>
+    <t>PRIVATE_NOTE_TO_THE_EVENT_REVIEWER</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>eventPage_submitBtn</t>
+  </si>
+  <si>
+    <t>thanks_event_submitPage</t>
+  </si>
+  <si>
+    <t>Text_in_Event_Submit_Page</t>
+  </si>
+  <si>
+    <t>submit_btn</t>
+  </si>
+  <si>
+    <t>searchSuppliersSearchBox</t>
+  </si>
+  <si>
+    <t>searchIcon</t>
+  </si>
+  <si>
+    <t>saveSearch</t>
+  </si>
+  <si>
+    <t>nameYourSrch</t>
+  </si>
+  <si>
+    <t>searchName</t>
+  </si>
+  <si>
+    <t>saveBtnSavSrch</t>
+  </si>
+  <si>
+    <t>mySSAlertsOppP</t>
+  </si>
+  <si>
+    <t>dropdownArrow</t>
+  </si>
+  <si>
+    <t>old2New</t>
+  </si>
+  <si>
+    <t>searchNamePresent</t>
+  </si>
+  <si>
+    <t>selectBySrchTxt</t>
+  </si>
+  <si>
+    <t>activeDays</t>
+  </si>
+  <si>
+    <t>daysActive</t>
+  </si>
+  <si>
+    <t>postTitle</t>
+  </si>
+  <si>
+    <t>postDesc</t>
+  </si>
+  <si>
+    <t>welcomeTab</t>
+  </si>
+  <si>
+    <t>opportunityMarketPlaceLink</t>
+  </si>
+  <si>
+    <t>op_title</t>
+  </si>
+  <si>
+    <t>opTitle</t>
+  </si>
+  <si>
+    <t>moveToElement</t>
+  </si>
+  <si>
+    <t>op_element</t>
+  </si>
+  <si>
+    <t>Expected Data_BuyerAdmin Page</t>
+  </si>
+  <si>
+    <t>Suggest an event</t>
+  </si>
+  <si>
+    <t>May 12 16</t>
+  </si>
+  <si>
+    <t>http://gmail.com</t>
+  </si>
+  <si>
+    <t>PARTY</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Thank you for your suggestion. Your event has been submitted for review.</t>
+  </si>
+  <si>
+    <t>searchTxtVerification</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Automotive</t>
+  </si>
+  <si>
+    <t>IBMIndiaBlr2</t>
+  </si>
+  <si>
+    <t>saikrishna@ibm.com</t>
+  </si>
+  <si>
+    <t>postInfo</t>
+  </si>
+  <si>
+    <t>15 Days</t>
+  </si>
+  <si>
+    <t>Sai_postTitle</t>
+  </si>
+  <si>
+    <t>Description : This is testing</t>
+  </si>
+  <si>
+    <t>Opportunity Marketplace</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -4481,7 +4715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4578,6 +4812,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4672,6 +4916,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4707,6 +4968,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4883,10 +5161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5247,6 +5525,30 @@
         <v>4</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5254,10 +5556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1531"/>
+  <dimension ref="A1:G1610"/>
   <sheetViews>
-    <sheetView topLeftCell="A1511" workbookViewId="0">
-      <selection activeCell="A1519" sqref="A1519:D1531"/>
+    <sheetView topLeftCell="A1516" workbookViewId="0">
+      <selection activeCell="A1532" sqref="A1532:D1610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24043,6 +24345,926 @@
         <v>1120</v>
       </c>
     </row>
+    <row r="1532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1532" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1532" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1532" s="64"/>
+      <c r="D1532" s="64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1533" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1533" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1533" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1533" s="64"/>
+    </row>
+    <row r="1534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1534" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1534" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1534" s="74"/>
+      <c r="D1534" s="74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1535" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1536" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1537" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1537" s="74" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1538" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1538" s="74" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1539" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1539" s="74" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1540" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1540" s="74" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1541" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1541" s="74" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1542" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1542" s="74" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1543" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1543" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1544" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1545" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1546" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D1546" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1547" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D1547" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1548" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D1548" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1549" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1550" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1551" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1552" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1553" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D1553" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1554" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1555" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1555" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1555" s="64"/>
+      <c r="D1555" s="64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1556" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1556" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1556" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1556" s="64"/>
+    </row>
+    <row r="1557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1557" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1557" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1557" s="74"/>
+      <c r="D1557" s="74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1558" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1559" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D1559" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1560" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1560" s="74" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1561" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1561" s="74" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1562" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1563" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1563" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1563" s="64"/>
+      <c r="D1563" s="64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1564" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1564" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1564" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1564" s="64"/>
+    </row>
+    <row r="1565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1565" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1565" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1565" s="74"/>
+      <c r="D1565" s="74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1566" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1567" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1568" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1569" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1570" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1571" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1572" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1573" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1574" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1575" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1576" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1577" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1578" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1579" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1580" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1581" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1582" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1583" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1584" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1585" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1585" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1586" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1587" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1588" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1588" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1588" s="64"/>
+      <c r="D1588" s="64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1589" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1589" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1589" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1589" s="64"/>
+    </row>
+    <row r="1590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1590" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1590" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1590" s="74"/>
+      <c r="D1590" s="74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1591" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1592" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D1592" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1593" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1594" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1595" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1596" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1597" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1598" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1598" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D1598" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1599" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1599" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1600" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1600" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D1600" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1601" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1601" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1602" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1603" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1604" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1605" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1606" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1607" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1608" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1609" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1610" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24051,10 +25273,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO124"/>
+  <dimension ref="A1:AO136"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:A124"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:XFD136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26795,7 +28017,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -26809,7 +28031,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -26823,12 +28045,12 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>14</v>
       </c>
@@ -26851,7 +28073,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -26874,7 +28096,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -26897,7 +28119,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -26920,7 +28142,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -26943,7 +28165,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -26966,7 +28188,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -26989,7 +28211,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -27010,6 +28232,257 @@
       </c>
       <c r="G124" t="s">
         <v>1118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I126" s="49"/>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>40</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1419</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1420</v>
+      </c>
+      <c r="K127" t="s">
+        <v>1422</v>
+      </c>
+      <c r="L127" t="s">
+        <v>1424</v>
+      </c>
+      <c r="M127" t="s">
+        <v>1426</v>
+      </c>
+      <c r="N127" t="s">
+        <v>1428</v>
+      </c>
+      <c r="O127" t="s">
+        <v>1430</v>
+      </c>
+      <c r="P127" t="s">
+        <v>1432</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>1435</v>
+      </c>
+      <c r="R127" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G128" s="75" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I128" s="49" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1467</v>
+      </c>
+      <c r="K128" t="s">
+        <v>1468</v>
+      </c>
+      <c r="L128" s="76" t="s">
+        <v>1469</v>
+      </c>
+      <c r="M128" s="77">
+        <v>2016</v>
+      </c>
+      <c r="N128" s="13" t="s">
+        <v>1470</v>
+      </c>
+      <c r="O128" s="14" t="s">
+        <v>1471</v>
+      </c>
+      <c r="P128" s="13">
+        <v>2016</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>1434</v>
+      </c>
+      <c r="R128" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I130" s="49"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H131" t="s">
+        <v>622</v>
+      </c>
+      <c r="I131" s="49"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>42</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F132" s="78" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G132" s="79" t="s">
+        <v>1477</v>
+      </c>
+      <c r="H132">
+        <v>12345678</v>
+      </c>
+      <c r="I132" s="49"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I133" s="49"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I134" s="49"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" t="s">
+        <v>40</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1453</v>
+      </c>
+      <c r="I135" s="49" t="s">
+        <v>1454</v>
+      </c>
+      <c r="J135" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="C136" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" s="78" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E136" s="78" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F136" s="78" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G136" s="77" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H136" s="78" t="s">
+        <v>1480</v>
+      </c>
+      <c r="I136" s="78" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J136" s="78" t="s">
+        <v>1482</v>
       </c>
     </row>
   </sheetData>
@@ -27061,6 +28534,8 @@
     <hyperlink ref="T100" r:id="rId45" display="mailto:s.u.p.p.l.i.e.r.c.o.n.n.ection24@gmail.com"/>
     <hyperlink ref="Y104" r:id="rId46"/>
     <hyperlink ref="Y108" r:id="rId47"/>
+    <hyperlink ref="G128" r:id="rId48"/>
+    <hyperlink ref="G132" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/com/supplierconnection/xls/TestSuite1.xlsx
+++ b/src/com/supplierconnection/xls/TestSuite1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="2055" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12315" windowHeight="2055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -5558,7 +5558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1610"/>
   <sheetViews>
-    <sheetView topLeftCell="A1516" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1588" workbookViewId="0">
       <selection activeCell="A1532" sqref="A1532:D1610"/>
     </sheetView>
   </sheetViews>
@@ -25275,7 +25275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+    <sheetView topLeftCell="A120" workbookViewId="0">
       <selection activeCell="A126" sqref="A126:XFD136"/>
     </sheetView>
   </sheetViews>
